--- a/Timeseries-Testing/summary.xlsx
+++ b/Timeseries-Testing/summary.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\R-code\Timeseries-Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R-code2\Timeseries-Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D51670-88C5-40EF-8C67-44F94CA07267}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581A0B44-A05E-4C02-B4B6-E04DC9DF2BBB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13284" windowHeight="6540" xr2:uid="{E888DDFE-0BB1-4B4D-9BFD-E692A878E1C8}"/>
+    <workbookView xWindow="1320" yWindow="1840" windowWidth="17850" windowHeight="8960" xr2:uid="{E888DDFE-0BB1-4B4D-9BFD-E692A878E1C8}"/>
   </bookViews>
   <sheets>
-    <sheet name="new_summary2" sheetId="5" r:id="rId1"/>
+    <sheet name="planet_point_summary" sheetId="6" r:id="rId1"/>
     <sheet name="for_estimation" sheetId="2" r:id="rId2"/>
-    <sheet name="new_summary" sheetId="4" r:id="rId3"/>
+    <sheet name="new_summary2" sheetId="5" r:id="rId3"/>
+    <sheet name="new_summary" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,6 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="49">
   <si>
     <t>Peak date</t>
   </si>
@@ -131,6 +133,54 @@
   </si>
   <si>
     <t>2016-08-01'</t>
+  </si>
+  <si>
+    <t>planet point</t>
+  </si>
+  <si>
+    <t>Planet estimate (low)</t>
+  </si>
+  <si>
+    <t>Planet estimate (high)</t>
+  </si>
+  <si>
+    <t>planet point 1</t>
+  </si>
+  <si>
+    <t>planet point 2</t>
+  </si>
+  <si>
+    <t>planet point 3</t>
+  </si>
+  <si>
+    <t>planet point 4</t>
+  </si>
+  <si>
+    <t>planet point 5</t>
+  </si>
+  <si>
+    <t>planet point 6</t>
+  </si>
+  <si>
+    <t>planet point 7</t>
+  </si>
+  <si>
+    <t>planet point 8</t>
+  </si>
+  <si>
+    <t>planet point 9</t>
+  </si>
+  <si>
+    <t>planet point 10</t>
+  </si>
+  <si>
+    <t>planet point 11</t>
+  </si>
+  <si>
+    <t>planet point 12</t>
+  </si>
+  <si>
+    <t>error GEE</t>
   </si>
 </sst>
 </file>
@@ -503,39 +553,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BFE1DDF-5479-48DB-8FBC-A384E1A8F76B}">
-  <dimension ref="A1:AC38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A13952B8-96F6-4FAF-85C0-11BAC6C722DB}">
+  <dimension ref="A1:AG34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView tabSelected="1" topLeftCell="Q16" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="8.88671875" style="5"/>
-    <col min="4" max="4" width="15.77734375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="5"/>
-    <col min="18" max="18" width="14.6640625" style="5" customWidth="1"/>
-    <col min="19" max="19" width="19.88671875" style="5" customWidth="1"/>
-    <col min="21" max="21" width="15.88671875" customWidth="1"/>
-    <col min="22" max="22" width="17.77734375" customWidth="1"/>
-    <col min="25" max="25" width="10.44140625" customWidth="1"/>
+    <col min="1" max="1" width="13.36328125" customWidth="1"/>
+    <col min="6" max="7" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="O1" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="S1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+    </row>
+    <row r="2" spans="1:31" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -549,15 +599,13 @@
       <c r="E2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="F2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="6"/>
       <c r="I2" s="1" t="s">
         <v>15</v>
       </c>
@@ -568,2378 +616,2074 @@
         <v>17</v>
       </c>
       <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="O2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="V2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="W2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="X2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="C3" s="5">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="D3" s="5">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="E3" s="5">
-        <v>123</v>
-      </c>
-      <c r="F3">
-        <f>C3-B3</f>
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <f>D3-B3</f>
-        <v>-8</v>
-      </c>
-      <c r="H3">
-        <f>E3-B3</f>
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <f>ABS(F3)</f>
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <f>ABS(G3)</f>
-        <v>8</v>
-      </c>
-      <c r="K3">
-        <f>ABS(H3)</f>
-        <v>0</v>
-      </c>
-      <c r="O3">
+        <v>153</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="S3">
         <v>1</v>
       </c>
-      <c r="P3">
+      <c r="T3">
         <v>48</v>
       </c>
-      <c r="Q3" s="5">
-        <v>48</v>
-      </c>
-      <c r="R3" s="5">
-        <v>40</v>
-      </c>
-      <c r="S3" s="5">
+      <c r="U3" s="5">
         <v>36</v>
       </c>
-      <c r="T3">
-        <f>Q3-P3</f>
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <f>R3-P3</f>
-        <v>-8</v>
-      </c>
-      <c r="V3">
-        <f>S3-P3</f>
-        <v>-12</v>
-      </c>
-      <c r="W3">
-        <f>ABS(T3)</f>
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <f>ABS(U3)</f>
-        <v>8</v>
-      </c>
-      <c r="Y3">
-        <f>ABS(V3)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="V3" s="5">
+        <v>58</v>
+      </c>
+      <c r="W3" s="5">
+        <v>39</v>
+      </c>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="O4">
+      <c r="B4">
+        <v>153</v>
+      </c>
+      <c r="C4" s="5">
+        <v>153</v>
+      </c>
+      <c r="D4" s="5">
+        <v>147</v>
+      </c>
+      <c r="E4" s="5">
+        <v>153</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="S4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="T4">
+        <v>46</v>
+      </c>
+      <c r="U4" s="5">
+        <v>39</v>
+      </c>
+      <c r="V4" s="5">
+        <v>39</v>
+      </c>
+      <c r="W4" s="5">
+        <v>35</v>
+      </c>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="C5" s="5">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="D5" s="5">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="E5" s="5">
-        <v>123</v>
-      </c>
-      <c r="F5">
-        <f t="shared" ref="F5:F17" si="0">C5-B5</f>
-        <v>-8</v>
-      </c>
-      <c r="G5">
-        <f t="shared" ref="G5:G17" si="1">D5-B5</f>
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <f t="shared" ref="H5:H17" si="2">E5-B5</f>
-        <v>-8</v>
-      </c>
-      <c r="I5">
-        <f t="shared" ref="I5:K17" si="3">ABS(F5)</f>
-        <v>8</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="O5">
+        <v>161</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="S5">
         <v>3</v>
       </c>
-      <c r="P5">
-        <v>48</v>
-      </c>
-      <c r="Q5" s="5">
-        <v>44</v>
-      </c>
-      <c r="R5" s="5">
-        <v>40</v>
-      </c>
-      <c r="S5" s="5">
-        <v>36</v>
-      </c>
       <c r="T5">
-        <f t="shared" ref="T5:T17" si="4">Q5-P5</f>
-        <v>-4</v>
-      </c>
-      <c r="U5">
-        <f t="shared" ref="U5:U17" si="5">R5-P5</f>
-        <v>-8</v>
-      </c>
-      <c r="V5">
-        <f t="shared" ref="V5:V17" si="6">S5-P5</f>
-        <v>-12</v>
-      </c>
-      <c r="W5">
-        <f t="shared" ref="W5:Y17" si="7">ABS(T5)</f>
-        <v>4</v>
-      </c>
-      <c r="X5">
-        <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-      <c r="Y5">
-        <f t="shared" si="7"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="U5" s="5">
+        <v>28</v>
+      </c>
+      <c r="V5" s="5">
+        <v>68</v>
+      </c>
+      <c r="W5" s="5">
+        <v>35</v>
+      </c>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
+        <v>153</v>
+      </c>
+      <c r="C6" s="5">
+        <v>153</v>
+      </c>
+      <c r="D6" s="5">
+        <v>153</v>
+      </c>
+      <c r="E6" s="5">
+        <v>153</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="S6">
+        <v>4</v>
+      </c>
+      <c r="T6">
+        <v>46</v>
+      </c>
+      <c r="U6" s="5">
+        <v>31</v>
+      </c>
+      <c r="V6" s="5">
+        <v>46</v>
+      </c>
+      <c r="W6" s="5">
+        <v>31</v>
+      </c>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>139</v>
+      </c>
+      <c r="C7" s="5">
+        <v>139</v>
+      </c>
+      <c r="D7" s="5">
+        <v>139</v>
+      </c>
+      <c r="E7" s="5">
+        <v>139</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="S7">
+        <v>5</v>
+      </c>
+      <c r="T7">
+        <v>48</v>
+      </c>
+      <c r="U7" s="5">
+        <v>24</v>
+      </c>
+      <c r="V7" s="5">
+        <v>37</v>
+      </c>
+      <c r="W7" s="5">
+        <v>24</v>
+      </c>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>161</v>
+      </c>
+      <c r="C8" s="5">
+        <v>153</v>
+      </c>
+      <c r="D8" s="5">
+        <v>161</v>
+      </c>
+      <c r="E8" s="5">
+        <v>161</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="S8">
+        <v>6</v>
+      </c>
+      <c r="T8">
+        <v>46</v>
+      </c>
+      <c r="U8" s="5">
+        <v>35</v>
+      </c>
+      <c r="V8" s="5">
+        <v>57</v>
+      </c>
+      <c r="W8" s="5">
+        <v>39</v>
+      </c>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>153</v>
+      </c>
+      <c r="C9" s="5">
+        <v>161</v>
+      </c>
+      <c r="D9" s="5">
+        <v>161</v>
+      </c>
+      <c r="E9" s="5">
+        <v>161</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="S9">
+        <v>7</v>
+      </c>
+      <c r="T9">
+        <v>62</v>
+      </c>
+      <c r="U9" s="5">
+        <v>27</v>
+      </c>
+      <c r="V9" s="5">
+        <v>28</v>
+      </c>
+      <c r="W9" s="5">
+        <v>23</v>
+      </c>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
         <v>147</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C10" s="5">
         <v>139</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D10" s="5">
+        <v>139</v>
+      </c>
+      <c r="E10" s="5">
         <v>147</v>
       </c>
-      <c r="E6" s="5">
-        <v>139</v>
-      </c>
-      <c r="F6">
+      <c r="H10" s="5"/>
+      <c r="S10">
+        <v>8</v>
+      </c>
+      <c r="T10">
+        <v>48</v>
+      </c>
+      <c r="U10" s="5">
+        <v>32</v>
+      </c>
+      <c r="V10" s="5">
+        <v>39</v>
+      </c>
+      <c r="W10" s="5">
+        <v>36</v>
+      </c>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>153</v>
+      </c>
+      <c r="C11" s="5">
+        <v>147</v>
+      </c>
+      <c r="D11" s="5">
+        <v>147</v>
+      </c>
+      <c r="E11" s="5">
+        <v>153</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="S11">
+        <v>9</v>
+      </c>
+      <c r="T11">
+        <v>46</v>
+      </c>
+      <c r="U11" s="5">
+        <v>36</v>
+      </c>
+      <c r="V11" s="5">
+        <v>43</v>
+      </c>
+      <c r="W11" s="5">
+        <v>39</v>
+      </c>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>123</v>
+      </c>
+      <c r="C12" s="5">
+        <v>115</v>
+      </c>
+      <c r="D12" s="5">
+        <v>115</v>
+      </c>
+      <c r="E12" s="5">
+        <v>123</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="S12">
+        <v>10</v>
+      </c>
+      <c r="T12">
+        <v>48</v>
+      </c>
+      <c r="U12" s="5">
+        <v>36</v>
+      </c>
+      <c r="V12" s="5">
+        <v>37</v>
+      </c>
+      <c r="W12" s="5">
+        <v>40</v>
+      </c>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>123</v>
+      </c>
+      <c r="C13" s="5">
+        <v>115</v>
+      </c>
+      <c r="D13" s="5">
+        <v>115</v>
+      </c>
+      <c r="E13" s="5">
+        <v>123</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="S13">
+        <v>11</v>
+      </c>
+      <c r="T13">
+        <v>48</v>
+      </c>
+      <c r="U13" s="5">
+        <v>36</v>
+      </c>
+      <c r="V13" s="5">
+        <v>36</v>
+      </c>
+      <c r="W13" s="5">
+        <v>40</v>
+      </c>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>123</v>
+      </c>
+      <c r="C14" s="5">
+        <v>123</v>
+      </c>
+      <c r="D14" s="5">
+        <v>123</v>
+      </c>
+      <c r="E14" s="5">
+        <v>131</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="S14">
+        <v>12</v>
+      </c>
+      <c r="T14">
+        <v>48</v>
+      </c>
+      <c r="U14" s="5">
+        <v>40</v>
+      </c>
+      <c r="V14" s="5">
+        <v>37</v>
+      </c>
+      <c r="W14" s="5">
+        <v>44</v>
+      </c>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+    </row>
+    <row r="18" spans="1:33" ht="58" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S18" t="s">
+        <v>31</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="V18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="W18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="X18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z18" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <f>B3+1.1*T3</f>
+        <v>199.8</v>
+      </c>
+      <c r="U19" s="5">
+        <f>C3+1.1*U3</f>
+        <v>186.6</v>
+      </c>
+      <c r="V19" s="5">
+        <f>D3+1.1*V3</f>
+        <v>210.8</v>
+      </c>
+      <c r="W19" s="5">
+        <f>E3+1.1*W3</f>
+        <v>195.9</v>
+      </c>
+      <c r="X19" s="2">
+        <v>184</v>
+      </c>
+      <c r="Y19" s="2">
+        <v>212</v>
+      </c>
+      <c r="Z19">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <f>ABS(Z19)</f>
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <f>ABS(AA19)</f>
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <f>ABS(AB19)</f>
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <f>ABS(AC19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <f>B3-1.75*T3</f>
+        <v>63</v>
+      </c>
+      <c r="C20" s="5">
+        <f>C3-1.75*U3</f>
+        <v>84</v>
+      </c>
+      <c r="D20" s="5">
+        <f>D3-1.75*V3</f>
+        <v>45.5</v>
+      </c>
+      <c r="E20" s="5">
+        <f>E3-1.75*W3</f>
+        <v>84.75</v>
+      </c>
+      <c r="F20" s="2">
+        <v>65</v>
+      </c>
+      <c r="G20" s="2">
+        <v>96</v>
+      </c>
+      <c r="H20" s="5">
+        <v>-2</v>
+      </c>
+      <c r="I20" s="5">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <f>D20-F20</f>
+        <v>-19.5</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <f>ABS(H20)</f>
+        <v>2</v>
+      </c>
+      <c r="M20">
+        <f>ABS(I20)</f>
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <f>ABS(J20)</f>
+        <v>19.5</v>
+      </c>
+      <c r="O20">
+        <f>ABS(K20)</f>
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>2</v>
+      </c>
+      <c r="T20">
+        <f>B4+1.1*T4</f>
+        <v>203.6</v>
+      </c>
+      <c r="U20" s="5">
+        <f t="shared" ref="U20:U30" si="0">C4+1.1*U4</f>
+        <v>195.9</v>
+      </c>
+      <c r="V20" s="5">
+        <f t="shared" ref="V20:V30" si="1">D4+1.1*V4</f>
+        <v>189.9</v>
+      </c>
+      <c r="W20" s="5">
+        <f t="shared" ref="W20:W30" si="2">E4+1.1*W4</f>
+        <v>191.5</v>
+      </c>
+      <c r="X20" s="2">
+        <v>184</v>
+      </c>
+      <c r="Y20" s="2">
+        <v>212</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <f t="shared" ref="AD20:AD30" si="3">ABS(Z20)</f>
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <f t="shared" ref="AE20:AE30" si="4">ABS(AA20)</f>
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <f t="shared" ref="AF20:AF30" si="5">ABS(AB20)</f>
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <f t="shared" ref="AG20:AG30" si="6">ABS(AC20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <f>B4-1.75*T4</f>
+        <v>72.5</v>
+      </c>
+      <c r="C21" s="5">
+        <f>C4-1.75*U4</f>
+        <v>84.75</v>
+      </c>
+      <c r="D21" s="5">
+        <f>D4-1.75*V4</f>
+        <v>78.75</v>
+      </c>
+      <c r="E21" s="5">
+        <f>E4-1.75*W4</f>
+        <v>91.75</v>
+      </c>
+      <c r="F21" s="2">
+        <v>70</v>
+      </c>
+      <c r="G21" s="2">
+        <v>106</v>
+      </c>
+      <c r="H21" s="5">
+        <v>0</v>
+      </c>
+      <c r="I21" s="5">
+        <v>0</v>
+      </c>
+      <c r="J21" s="5">
+        <v>0</v>
+      </c>
+      <c r="K21" s="5">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <f t="shared" ref="L21:L31" si="7">ABS(H21)</f>
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <f t="shared" ref="M21:M31" si="8">ABS(I21)</f>
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <f t="shared" ref="N21:N31" si="9">ABS(J21)</f>
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <f t="shared" ref="O21:O31" si="10">ABS(K21)</f>
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>3</v>
+      </c>
+      <c r="T21">
+        <f>B5+1.1*T5</f>
+        <v>203.6</v>
+      </c>
+      <c r="U21" s="5">
         <f t="shared" si="0"/>
-        <v>-8</v>
-      </c>
-      <c r="G6">
+        <v>177.8</v>
+      </c>
+      <c r="V21" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H6">
+        <v>227.8</v>
+      </c>
+      <c r="W21" s="5">
         <f t="shared" si="2"/>
-        <v>-8</v>
-      </c>
-      <c r="I6">
+        <v>199.5</v>
+      </c>
+      <c r="X21" s="2">
+        <v>162</v>
+      </c>
+      <c r="Y21" s="2">
+        <v>206</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <f>V21-Y21</f>
+        <v>21.800000000000011</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
         <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <f t="shared" si="5"/>
+        <v>21.800000000000011</v>
+      </c>
+      <c r="AG21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <f>B5-1.75*T5</f>
+        <v>72.5</v>
+      </c>
+      <c r="C22" s="5">
+        <f>C5-1.75*U5</f>
+        <v>98</v>
+      </c>
+      <c r="D22" s="5">
+        <f>D5-1.75*V5</f>
+        <v>34</v>
+      </c>
+      <c r="E22" s="5">
+        <f>E5-1.75*W5</f>
+        <v>99.75</v>
+      </c>
+      <c r="F22" s="2">
+        <v>61</v>
+      </c>
+      <c r="G22" s="2">
+        <v>106</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <f>D22-F22</f>
+        <v>-27</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="9"/>
+        <v>27</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>4</v>
+      </c>
+      <c r="T22">
+        <f>B6+1.1*T6</f>
+        <v>203.6</v>
+      </c>
+      <c r="U22" s="5">
+        <f t="shared" si="0"/>
+        <v>187.1</v>
+      </c>
+      <c r="V22" s="5">
+        <f t="shared" si="1"/>
+        <v>203.6</v>
+      </c>
+      <c r="W22" s="5">
+        <f t="shared" si="2"/>
+        <v>187.1</v>
+      </c>
+      <c r="X22" s="2">
+        <v>198</v>
+      </c>
+      <c r="Y22" s="2">
+        <v>219</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <f>U22-X22</f>
+        <v>-10.900000000000006</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <f>W22-X22</f>
+        <v>-10.900000000000006</v>
+      </c>
+      <c r="AD22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K6">
+      <c r="AE22">
+        <f t="shared" si="4"/>
+        <v>10.900000000000006</v>
+      </c>
+      <c r="AF22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <f t="shared" si="6"/>
+        <v>10.900000000000006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <f>B6-1.75*T6</f>
+        <v>72.5</v>
+      </c>
+      <c r="C23" s="5">
+        <f>C6-1.75*U6</f>
+        <v>98.75</v>
+      </c>
+      <c r="D23" s="5">
+        <f>D6-1.75*V6</f>
+        <v>72.5</v>
+      </c>
+      <c r="E23" s="5">
+        <f>E6-1.75*W6</f>
+        <v>98.75</v>
+      </c>
+      <c r="F23" s="2">
+        <v>75</v>
+      </c>
+      <c r="G23" s="2">
+        <v>106</v>
+      </c>
+      <c r="H23" s="5">
+        <f>B23-F23</f>
+        <v>-2.5</v>
+      </c>
+      <c r="I23" s="5">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <f>D23-F23</f>
+        <v>-2.5</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="7"/>
+        <v>2.5</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="9"/>
+        <v>2.5</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>5</v>
+      </c>
+      <c r="T23">
+        <f>B7+1.1*T7</f>
+        <v>191.8</v>
+      </c>
+      <c r="U23" s="5">
+        <f t="shared" si="0"/>
+        <v>165.4</v>
+      </c>
+      <c r="V23" s="5">
+        <f t="shared" si="1"/>
+        <v>179.7</v>
+      </c>
+      <c r="W23" s="5">
+        <f t="shared" si="2"/>
+        <v>165.4</v>
+      </c>
+      <c r="X23" s="2">
+        <v>184</v>
+      </c>
+      <c r="Y23" s="2">
+        <v>221</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <f>U23-X23</f>
+        <v>-18.599999999999994</v>
+      </c>
+      <c r="AB23">
+        <f>V23-X23</f>
+        <v>-4.3000000000000114</v>
+      </c>
+      <c r="AC23">
+        <f>W23-X23</f>
+        <v>-18.599999999999994</v>
+      </c>
+      <c r="AD23">
         <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="O6">
-        <v>4</v>
-      </c>
-      <c r="P6">
-        <v>48</v>
-      </c>
-      <c r="Q6" s="5">
-        <v>48</v>
-      </c>
-      <c r="R6" s="5">
-        <v>42</v>
-      </c>
-      <c r="S6" s="5">
-        <v>32</v>
-      </c>
-      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="AE23">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U6">
+        <v>18.599999999999994</v>
+      </c>
+      <c r="AF23">
         <f t="shared" si="5"/>
+        <v>4.3000000000000114</v>
+      </c>
+      <c r="AG23">
+        <f t="shared" si="6"/>
+        <v>18.599999999999994</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <f>B7-1.75*T7</f>
+        <v>55</v>
+      </c>
+      <c r="C24" s="5">
+        <f>C7-1.75*U7</f>
+        <v>97</v>
+      </c>
+      <c r="D24" s="5">
+        <f>D7-1.75*V7</f>
+        <v>74.25</v>
+      </c>
+      <c r="E24" s="5">
+        <f>E7-1.75*W7</f>
+        <v>97</v>
+      </c>
+      <c r="F24" s="2">
+        <v>61</v>
+      </c>
+      <c r="G24" s="2">
+        <v>92</v>
+      </c>
+      <c r="H24" s="5">
+        <f>B24-F24</f>
         <v>-6</v>
       </c>
-      <c r="V6">
-        <f t="shared" si="6"/>
-        <v>-16</v>
-      </c>
-      <c r="W6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X6">
+      <c r="I24">
+        <f>C24-G24</f>
+        <v>5</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <f>E24-G24</f>
+        <v>5</v>
+      </c>
+      <c r="L24">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="Y6">
+      <c r="M24">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="S24">
+        <v>6</v>
+      </c>
+      <c r="T24">
+        <f>B8+1.1*T8</f>
+        <v>211.6</v>
+      </c>
+      <c r="U24" s="5">
+        <f t="shared" si="0"/>
+        <v>191.5</v>
+      </c>
+      <c r="V24" s="5">
+        <f t="shared" si="1"/>
+        <v>223.7</v>
+      </c>
+      <c r="W24" s="5">
+        <f t="shared" si="2"/>
+        <v>203.9</v>
+      </c>
+      <c r="X24" s="2">
+        <v>198</v>
+      </c>
+      <c r="Y24" s="2">
+        <v>226</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <f>U24-X24</f>
+        <v>-6.5</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <f t="shared" si="4"/>
+        <v>6.5</v>
+      </c>
+      <c r="AF24">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <f>B8-1.75*T8</f>
+        <v>80.5</v>
+      </c>
+      <c r="C25" s="5">
+        <f>C8-1.75*U8</f>
+        <v>91.75</v>
+      </c>
+      <c r="D25" s="5">
+        <f>D8-1.75*V8</f>
+        <v>61.25</v>
+      </c>
+      <c r="E25" s="5">
+        <f>E8-1.75*W8</f>
+        <v>92.75</v>
+      </c>
+      <c r="F25" s="2">
+        <v>70</v>
+      </c>
+      <c r="G25" s="2">
+        <v>101</v>
+      </c>
+      <c r="H25" s="5">
+        <v>0</v>
+      </c>
+      <c r="I25" s="5">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <f>D25-F25</f>
+        <v>-8.75</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
         <f t="shared" si="7"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>147</v>
-      </c>
-      <c r="C7" s="5">
-        <v>139</v>
-      </c>
-      <c r="D7" s="5">
-        <v>139</v>
-      </c>
-      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="9"/>
+        <v>8.75</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>7</v>
+      </c>
+      <c r="T25">
+        <f>B9+1.1*T9</f>
+        <v>221.2</v>
+      </c>
+      <c r="U25" s="5">
+        <f t="shared" si="0"/>
+        <v>190.7</v>
+      </c>
+      <c r="V25" s="5">
+        <f t="shared" si="1"/>
+        <v>191.8</v>
+      </c>
+      <c r="W25" s="5">
+        <f t="shared" si="2"/>
+        <v>186.3</v>
+      </c>
+      <c r="X25" s="2">
+        <v>221</v>
+      </c>
+      <c r="Y25" s="2">
+        <v>236</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <f>U25-X25</f>
+        <v>-30.300000000000011</v>
+      </c>
+      <c r="AB25">
+        <f>V25-X25</f>
+        <v>-29.199999999999989</v>
+      </c>
+      <c r="AC25">
+        <f>W25-X25</f>
+        <v>-34.699999999999989</v>
+      </c>
+      <c r="AD25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <f t="shared" si="4"/>
+        <v>30.300000000000011</v>
+      </c>
+      <c r="AF25">
+        <f t="shared" si="5"/>
+        <v>29.199999999999989</v>
+      </c>
+      <c r="AG25">
+        <f t="shared" si="6"/>
+        <v>34.699999999999989</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>7</v>
+      </c>
+      <c r="B26">
+        <f>B9-1.75*T9</f>
+        <v>44.5</v>
+      </c>
+      <c r="C26" s="5">
+        <f>C9-1.75*U9</f>
+        <v>113.75</v>
+      </c>
+      <c r="D26" s="5">
+        <f>D9-1.75*V9</f>
+        <v>112</v>
+      </c>
+      <c r="E26" s="5">
+        <f>E9-1.75*W9</f>
+        <v>120.75</v>
+      </c>
+      <c r="F26" s="2">
+        <v>101</v>
+      </c>
+      <c r="G26" s="2">
         <v>131</v>
       </c>
-      <c r="F7">
+      <c r="H26" s="5">
+        <f>B26-F26</f>
+        <v>-56.5</v>
+      </c>
+      <c r="I26" s="5">
+        <v>0</v>
+      </c>
+      <c r="J26" s="5">
+        <v>0</v>
+      </c>
+      <c r="K26" s="5">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="7"/>
+        <v>56.5</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>8</v>
+      </c>
+      <c r="T26">
+        <f>B10+1.1*T10</f>
+        <v>199.8</v>
+      </c>
+      <c r="U26" s="5">
         <f t="shared" si="0"/>
+        <v>174.2</v>
+      </c>
+      <c r="V26" s="5">
+        <f t="shared" si="1"/>
+        <v>181.9</v>
+      </c>
+      <c r="W26" s="5">
+        <f t="shared" si="2"/>
+        <v>186.6</v>
+      </c>
+      <c r="X26" s="2">
+        <v>172</v>
+      </c>
+      <c r="Y26" s="2">
+        <v>215</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>8</v>
+      </c>
+      <c r="B27">
+        <f>B10-1.75*T10</f>
+        <v>63</v>
+      </c>
+      <c r="C27" s="5">
+        <f>C10-1.75*U10</f>
+        <v>83</v>
+      </c>
+      <c r="D27" s="5">
+        <f>D10-1.75*V10</f>
+        <v>70.75</v>
+      </c>
+      <c r="E27" s="5">
+        <f>E10-1.75*W10</f>
+        <v>84</v>
+      </c>
+      <c r="F27" s="2">
+        <v>50</v>
+      </c>
+      <c r="G27" s="2">
+        <v>91</v>
+      </c>
+      <c r="H27" s="5">
+        <v>0</v>
+      </c>
+      <c r="I27" s="5">
+        <v>0</v>
+      </c>
+      <c r="J27" s="5">
+        <v>0</v>
+      </c>
+      <c r="K27" s="5">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>9</v>
+      </c>
+      <c r="T27">
+        <f>B11+1.1*T11</f>
+        <v>203.6</v>
+      </c>
+      <c r="U27" s="5">
+        <f t="shared" si="0"/>
+        <v>186.6</v>
+      </c>
+      <c r="V27" s="5">
+        <f t="shared" si="1"/>
+        <v>194.3</v>
+      </c>
+      <c r="W27" s="5">
+        <f t="shared" si="2"/>
+        <v>195.9</v>
+      </c>
+      <c r="X27" s="2">
+        <v>184</v>
+      </c>
+      <c r="Y27" s="2">
+        <v>225</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>9</v>
+      </c>
+      <c r="B28">
+        <f>B11-1.75*T11</f>
+        <v>72.5</v>
+      </c>
+      <c r="C28" s="5">
+        <f>C11-1.75*U11</f>
+        <v>84</v>
+      </c>
+      <c r="D28" s="5">
+        <f>D11-1.75*V11</f>
+        <v>71.75</v>
+      </c>
+      <c r="E28" s="5">
+        <f>E11-1.75*W11</f>
+        <v>84.75</v>
+      </c>
+      <c r="F28" s="2">
+        <v>61</v>
+      </c>
+      <c r="G28" s="2">
+        <v>85</v>
+      </c>
+      <c r="H28" s="5">
+        <v>0</v>
+      </c>
+      <c r="I28" s="5">
+        <v>0</v>
+      </c>
+      <c r="J28" s="5">
+        <v>0</v>
+      </c>
+      <c r="K28" s="5">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>10</v>
+      </c>
+      <c r="T28">
+        <f>B12+1.1*T12</f>
+        <v>175.8</v>
+      </c>
+      <c r="U28" s="5">
+        <f t="shared" si="0"/>
+        <v>154.6</v>
+      </c>
+      <c r="V28" s="5">
+        <f t="shared" si="1"/>
+        <v>155.69999999999999</v>
+      </c>
+      <c r="W28" s="5">
+        <f t="shared" si="2"/>
+        <v>167</v>
+      </c>
+      <c r="X28" s="2">
+        <v>156</v>
+      </c>
+      <c r="Y28" s="2">
+        <v>172</v>
+      </c>
+      <c r="Z28">
+        <f>T28-Y28</f>
+        <v>3.8000000000000114</v>
+      </c>
+      <c r="AA28">
+        <f>U28-X28</f>
+        <v>-1.4000000000000057</v>
+      </c>
+      <c r="AB28">
+        <f>V28-X28</f>
+        <v>-0.30000000000001137</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <f t="shared" si="3"/>
+        <v>3.8000000000000114</v>
+      </c>
+      <c r="AE28">
+        <f t="shared" si="4"/>
+        <v>1.4000000000000057</v>
+      </c>
+      <c r="AF28">
+        <f t="shared" si="5"/>
+        <v>0.30000000000001137</v>
+      </c>
+      <c r="AG28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <f>B12-1.75*T12</f>
+        <v>39</v>
+      </c>
+      <c r="C29" s="5">
+        <f>C12-1.75*U12</f>
+        <v>52</v>
+      </c>
+      <c r="D29" s="5">
+        <f>D12-1.75*V12</f>
+        <v>50.25</v>
+      </c>
+      <c r="E29" s="5">
+        <f>E12-1.75*W12</f>
+        <v>53</v>
+      </c>
+      <c r="F29" s="2">
+        <v>61</v>
+      </c>
+      <c r="G29" s="2">
+        <v>80</v>
+      </c>
+      <c r="H29" s="5">
+        <f>B29-F29</f>
+        <v>-22</v>
+      </c>
+      <c r="I29">
+        <f>C29-F29</f>
+        <v>-9</v>
+      </c>
+      <c r="J29">
+        <f>D29-F29</f>
+        <v>-10.75</v>
+      </c>
+      <c r="K29">
+        <f>E29-F29</f>
         <v>-8</v>
       </c>
-      <c r="G7">
+      <c r="L29">
+        <f t="shared" si="7"/>
+        <v>22</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="9"/>
+        <v>10.75</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="S29">
+        <v>11</v>
+      </c>
+      <c r="T29">
+        <f>B13+1.1*T13</f>
+        <v>175.8</v>
+      </c>
+      <c r="U29" s="5">
+        <f t="shared" si="0"/>
+        <v>154.6</v>
+      </c>
+      <c r="V29" s="5">
         <f t="shared" si="1"/>
+        <v>154.6</v>
+      </c>
+      <c r="W29" s="5">
+        <f t="shared" si="2"/>
+        <v>167</v>
+      </c>
+      <c r="X29" s="2">
+        <v>156</v>
+      </c>
+      <c r="Y29" s="2">
+        <v>172</v>
+      </c>
+      <c r="Z29">
+        <f>T29-Y29</f>
+        <v>3.8000000000000114</v>
+      </c>
+      <c r="AA29">
+        <f>U29-X29</f>
+        <v>-1.4000000000000057</v>
+      </c>
+      <c r="AB29">
+        <f>V29-X29</f>
+        <v>-1.4000000000000057</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <f t="shared" si="3"/>
+        <v>3.8000000000000114</v>
+      </c>
+      <c r="AE29">
+        <f t="shared" si="4"/>
+        <v>1.4000000000000057</v>
+      </c>
+      <c r="AF29">
+        <f t="shared" si="5"/>
+        <v>1.4000000000000057</v>
+      </c>
+      <c r="AG29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>11</v>
+      </c>
+      <c r="B30">
+        <f>B13-1.75*T13</f>
+        <v>39</v>
+      </c>
+      <c r="C30" s="5">
+        <f>C13-1.75*U13</f>
+        <v>52</v>
+      </c>
+      <c r="D30" s="5">
+        <f>D13-1.75*V13</f>
+        <v>52</v>
+      </c>
+      <c r="E30" s="5">
+        <f>E13-1.75*W13</f>
+        <v>53</v>
+      </c>
+      <c r="F30" s="2">
+        <v>61</v>
+      </c>
+      <c r="G30" s="2">
+        <v>80</v>
+      </c>
+      <c r="H30" s="5">
+        <f>B30-F30</f>
+        <v>-22</v>
+      </c>
+      <c r="I30">
+        <f>C30-F30</f>
+        <v>-9</v>
+      </c>
+      <c r="J30">
+        <f>D30-F30</f>
+        <v>-9</v>
+      </c>
+      <c r="K30">
+        <f>E30-F30</f>
         <v>-8</v>
       </c>
-      <c r="H7">
+      <c r="L30">
+        <f t="shared" si="7"/>
+        <v>22</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="S30">
+        <v>12</v>
+      </c>
+      <c r="T30">
+        <f>B14+1.1*T14</f>
+        <v>175.8</v>
+      </c>
+      <c r="U30" s="5">
+        <f t="shared" si="0"/>
+        <v>167</v>
+      </c>
+      <c r="V30" s="5">
+        <f t="shared" si="1"/>
+        <v>163.69999999999999</v>
+      </c>
+      <c r="W30" s="5">
         <f t="shared" si="2"/>
-        <v>-16</v>
-      </c>
-      <c r="I7">
+        <v>179.4</v>
+      </c>
+      <c r="X30" s="2">
+        <v>162</v>
+      </c>
+      <c r="Y30" s="2">
+        <v>203</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
         <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="O7">
-        <v>5</v>
-      </c>
-      <c r="P7">
-        <v>56</v>
-      </c>
-      <c r="Q7" s="5">
-        <v>48</v>
-      </c>
-      <c r="R7" s="5">
-        <v>40</v>
-      </c>
-      <c r="S7" s="5">
-        <v>32</v>
-      </c>
-      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="AE30">
         <f t="shared" si="4"/>
-        <v>-8</v>
-      </c>
-      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="AF30">
         <f t="shared" si="5"/>
-        <v>-16</v>
-      </c>
-      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="AG30">
         <f t="shared" si="6"/>
-        <v>-24</v>
-      </c>
-      <c r="W7">
-        <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-      <c r="X7">
-        <f t="shared" si="7"/>
-        <v>16</v>
-      </c>
-      <c r="Y7">
-        <f t="shared" si="7"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>147</v>
-      </c>
-      <c r="C8" s="5">
-        <v>139</v>
-      </c>
-      <c r="D8" s="5">
-        <v>131</v>
-      </c>
-      <c r="E8" s="5">
-        <v>139</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="0"/>
-        <v>-8</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="1"/>
-        <v>-16</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="2"/>
-        <v>-8</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="O8">
-        <v>6</v>
-      </c>
-      <c r="P8">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="5">
-        <v>48</v>
-      </c>
-      <c r="R8" s="5">
-        <v>38</v>
-      </c>
-      <c r="S8" s="5">
-        <v>36</v>
-      </c>
-      <c r="T8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <f t="shared" si="5"/>
-        <v>-10</v>
-      </c>
-      <c r="V8">
-        <f t="shared" si="6"/>
-        <v>-12</v>
-      </c>
-      <c r="W8">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="Y8">
-        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A31">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>153</v>
-      </c>
-      <c r="C9" s="5">
-        <v>153</v>
-      </c>
-      <c r="D9" s="5">
-        <v>147</v>
-      </c>
-      <c r="E9" s="5">
-        <v>153</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="1"/>
-        <v>-6</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>7</v>
-      </c>
-      <c r="P9">
-        <v>46</v>
-      </c>
-      <c r="Q9" s="5">
-        <v>35</v>
-      </c>
-      <c r="R9" s="5">
-        <v>37</v>
-      </c>
-      <c r="S9" s="5">
-        <v>31</v>
-      </c>
-      <c r="T9">
-        <f t="shared" si="4"/>
+      <c r="B31">
+        <f>B14-1.75*T14</f>
+        <v>39</v>
+      </c>
+      <c r="C31" s="5">
+        <f>C14-1.75*U14</f>
+        <v>53</v>
+      </c>
+      <c r="D31" s="5">
+        <f>D14-1.75*V14</f>
+        <v>58.25</v>
+      </c>
+      <c r="E31" s="5">
+        <f>E14-1.75*W14</f>
+        <v>54</v>
+      </c>
+      <c r="F31" s="2">
+        <v>50</v>
+      </c>
+      <c r="G31" s="2">
+        <v>74</v>
+      </c>
+      <c r="H31" s="5">
+        <f>B31-F31</f>
         <v>-11</v>
       </c>
-      <c r="U9">
-        <f t="shared" si="5"/>
-        <v>-9</v>
-      </c>
-      <c r="V9">
-        <f t="shared" si="6"/>
-        <v>-15</v>
-      </c>
-      <c r="W9">
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
         <f t="shared" si="7"/>
         <v>11</v>
       </c>
-      <c r="X9">
-        <f t="shared" si="7"/>
-        <v>9</v>
-      </c>
-      <c r="Y9">
-        <f t="shared" si="7"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>131</v>
-      </c>
-      <c r="C10" s="5">
-        <v>123</v>
-      </c>
-      <c r="D10" s="5">
-        <v>123</v>
-      </c>
-      <c r="E10" s="5">
-        <v>123</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>-8</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="1"/>
-        <v>-8</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="2"/>
-        <v>-8</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="O10">
-        <v>8</v>
-      </c>
-      <c r="P10">
-        <v>48</v>
-      </c>
-      <c r="Q10" s="5">
-        <v>44</v>
-      </c>
-      <c r="R10" s="5">
-        <v>35</v>
-      </c>
-      <c r="S10" s="5">
-        <v>36</v>
-      </c>
-      <c r="T10">
-        <f t="shared" si="4"/>
-        <v>-4</v>
-      </c>
-      <c r="U10">
-        <f t="shared" si="5"/>
-        <v>-13</v>
-      </c>
-      <c r="V10">
-        <f t="shared" si="6"/>
-        <v>-12</v>
-      </c>
-      <c r="W10">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="X10">
-        <f t="shared" si="7"/>
-        <v>13</v>
-      </c>
-      <c r="Y10">
-        <f t="shared" si="7"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>161</v>
-      </c>
-      <c r="O11">
-        <v>9</v>
-      </c>
-      <c r="P11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>153</v>
-      </c>
-      <c r="C12" s="5">
-        <v>153</v>
-      </c>
-      <c r="D12" s="5">
-        <v>153</v>
-      </c>
-      <c r="E12" s="5">
-        <v>153</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>10</v>
-      </c>
-      <c r="P12">
-        <v>46</v>
-      </c>
-      <c r="Q12" s="5">
-        <v>51</v>
-      </c>
-      <c r="R12" s="5">
-        <v>38</v>
-      </c>
-      <c r="S12" s="5">
-        <v>39</v>
-      </c>
-      <c r="T12">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="U12">
-        <f t="shared" si="5"/>
-        <v>-8</v>
-      </c>
-      <c r="V12">
-        <f t="shared" si="6"/>
-        <v>-7</v>
-      </c>
-      <c r="W12">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="X12">
-        <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-      <c r="Y12">
-        <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>225</v>
-      </c>
-      <c r="C13" s="5">
-        <v>241</v>
-      </c>
-      <c r="D13" s="5">
-        <v>241</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="O13">
-        <v>11</v>
-      </c>
-      <c r="P13">
-        <v>48</v>
-      </c>
-      <c r="Q13" s="5">
-        <v>47</v>
-      </c>
-      <c r="R13" s="5">
-        <v>40</v>
-      </c>
-      <c r="T13">
-        <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="U13">
-        <f t="shared" si="5"/>
-        <v>-8</v>
-      </c>
-      <c r="W13">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="X13">
-        <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>185</v>
-      </c>
-      <c r="C14" s="5">
-        <v>185</v>
-      </c>
-      <c r="D14" s="5">
-        <v>185</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <f>D14-B14</f>
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>12</v>
-      </c>
-      <c r="P14">
-        <v>38</v>
-      </c>
-      <c r="Q14" s="5">
-        <v>27</v>
-      </c>
-      <c r="R14" s="5">
-        <v>46</v>
-      </c>
-      <c r="T14">
-        <f t="shared" si="4"/>
-        <v>-11</v>
-      </c>
-      <c r="U14">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="W14">
-        <f t="shared" si="7"/>
-        <v>11</v>
-      </c>
-      <c r="X14">
-        <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>153</v>
-      </c>
-      <c r="C15" s="5">
-        <v>153</v>
-      </c>
-      <c r="D15" s="5">
-        <v>153</v>
-      </c>
-      <c r="E15" s="5">
-        <v>153</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>13</v>
-      </c>
-      <c r="P15">
-        <v>54</v>
-      </c>
-      <c r="Q15" s="5">
-        <v>31</v>
-      </c>
-      <c r="R15" s="5">
-        <v>49</v>
-      </c>
-      <c r="S15" s="5">
-        <v>39</v>
-      </c>
-      <c r="T15">
-        <f t="shared" si="4"/>
-        <v>-23</v>
-      </c>
-      <c r="U15">
-        <f t="shared" si="5"/>
-        <v>-5</v>
-      </c>
-      <c r="V15">
-        <f t="shared" si="6"/>
-        <v>-15</v>
-      </c>
-      <c r="W15">
-        <f t="shared" si="7"/>
-        <v>23</v>
-      </c>
-      <c r="X15">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="Y15">
-        <f t="shared" si="7"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>161</v>
-      </c>
-      <c r="C16" s="5">
-        <v>153</v>
-      </c>
-      <c r="D16" s="5">
-        <v>161</v>
-      </c>
-      <c r="E16" s="5">
-        <v>161</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>-8</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>14</v>
-      </c>
-      <c r="P16">
-        <v>46</v>
-      </c>
-      <c r="Q16" s="5">
-        <v>27</v>
-      </c>
-      <c r="R16" s="5">
-        <v>56</v>
-      </c>
-      <c r="S16" s="5">
-        <v>35</v>
-      </c>
-      <c r="T16">
-        <f t="shared" si="4"/>
-        <v>-19</v>
-      </c>
-      <c r="U16">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="V16">
-        <f t="shared" si="6"/>
-        <v>-11</v>
-      </c>
-      <c r="W16">
-        <f t="shared" si="7"/>
-        <v>19</v>
-      </c>
-      <c r="X16">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="Y16">
-        <f t="shared" si="7"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>147</v>
-      </c>
-      <c r="C17" s="5">
-        <v>147</v>
-      </c>
-      <c r="D17" s="5">
-        <v>147</v>
-      </c>
-      <c r="E17" s="5">
-        <v>139</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="2"/>
-        <v>-8</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="O17">
-        <v>15</v>
-      </c>
-      <c r="P17">
-        <v>54</v>
-      </c>
-      <c r="Q17" s="5">
-        <v>56</v>
-      </c>
-      <c r="R17" s="5">
-        <v>40</v>
-      </c>
-      <c r="S17" s="5">
-        <v>32</v>
-      </c>
-      <c r="T17">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="U17">
-        <f t="shared" si="5"/>
-        <v>-14</v>
-      </c>
-      <c r="V17">
-        <f t="shared" si="6"/>
-        <v>-22</v>
-      </c>
-      <c r="W17">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="X17">
-        <f t="shared" si="7"/>
-        <v>14</v>
-      </c>
-      <c r="Y17">
-        <f t="shared" si="7"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="F18">
-        <f>AVERAGE(F3:F17)</f>
-        <v>-2.4615384615384617</v>
-      </c>
-      <c r="G18">
-        <f>AVERAGE(G3:G17)</f>
-        <v>-2.3076923076923075</v>
-      </c>
-      <c r="H18">
-        <f>AVERAGE(H3:H17)</f>
-        <v>-5.0909090909090908</v>
-      </c>
-      <c r="I18">
-        <f>AVERAGE(I3:I17)</f>
-        <v>4.9230769230769234</v>
-      </c>
-      <c r="J18">
-        <f t="shared" ref="J18:K18" si="8">AVERAGE(J3:J17)</f>
-        <v>4.7692307692307692</v>
-      </c>
-      <c r="K18">
+      <c r="M31">
         <f t="shared" si="8"/>
-        <v>5.0909090909090908</v>
-      </c>
-      <c r="T18">
-        <f t="shared" ref="T18:Y18" si="9">AVERAGE(T3:T17)</f>
-        <v>-5.6923076923076925</v>
-      </c>
-      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="N31">
         <f t="shared" si="9"/>
-        <v>-6.6923076923076925</v>
-      </c>
-      <c r="V18">
-        <f t="shared" si="9"/>
-        <v>-14.363636363636363</v>
-      </c>
-      <c r="W18">
-        <f t="shared" si="9"/>
-        <v>6.7692307692307692</v>
-      </c>
-      <c r="X18">
-        <f t="shared" si="9"/>
-        <v>9.4615384615384617</v>
-      </c>
-      <c r="Y18">
-        <f t="shared" si="9"/>
-        <v>14.363636363636363</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O21" t="s">
-        <v>31</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="R21" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="S21" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="T21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="U21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="V21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="W21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="X21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y21" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O22">
-        <v>1</v>
-      </c>
-      <c r="P22">
-        <f>B3+1.1*P3</f>
-        <v>175.8</v>
-      </c>
-      <c r="Q22" s="5">
-        <f>C3+1.1*Q3</f>
-        <v>175.8</v>
-      </c>
-      <c r="R22" s="5">
-        <f>D3+1.1*R3</f>
-        <v>159</v>
-      </c>
-      <c r="S22" s="5">
-        <f>E3+1.1*S3</f>
-        <v>162.6</v>
-      </c>
-      <c r="T22">
-        <f>Q22-P22</f>
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <f>R22-P22</f>
-        <v>-16.800000000000011</v>
-      </c>
-      <c r="V22">
-        <f>S22-P22</f>
-        <v>-13.200000000000017</v>
-      </c>
-      <c r="W22">
-        <f>ABS(T22)</f>
-        <v>0</v>
-      </c>
-      <c r="X22">
-        <f t="shared" ref="X22:Y22" si="10">ABS(U22)</f>
-        <v>16.800000000000011</v>
-      </c>
-      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="O31">
         <f t="shared" si="10"/>
-        <v>13.200000000000017</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23">
-        <f>B3-1.75*P3</f>
-        <v>39</v>
-      </c>
-      <c r="C23" s="5">
-        <f>C3-1.75*Q3</f>
-        <v>39</v>
-      </c>
-      <c r="D23" s="5">
-        <f>D3-1.75*R3</f>
-        <v>45</v>
-      </c>
-      <c r="E23" s="5">
-        <f>E3-1.75*S3</f>
-        <v>60</v>
-      </c>
-      <c r="F23">
-        <f>C23-B23</f>
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <f>D23-B23</f>
-        <v>6</v>
-      </c>
-      <c r="H23">
-        <f>E23-B23</f>
-        <v>21</v>
-      </c>
-      <c r="I23">
-        <f>ABS(F23)</f>
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <f t="shared" ref="J23:K23" si="11">ABS(G23)</f>
-        <v>6</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="11"/>
-        <v>21</v>
-      </c>
-      <c r="O23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>2</v>
-      </c>
-      <c r="O24">
-        <v>3</v>
-      </c>
-      <c r="P24">
-        <f t="shared" ref="P24:S36" si="12">B5+1.1*P5</f>
-        <v>183.8</v>
-      </c>
-      <c r="Q24" s="5">
-        <f t="shared" si="12"/>
-        <v>171.4</v>
-      </c>
-      <c r="R24" s="5">
-        <f t="shared" si="12"/>
-        <v>175</v>
-      </c>
-      <c r="S24" s="5">
-        <f t="shared" si="12"/>
-        <v>162.6</v>
-      </c>
-      <c r="T24">
-        <f t="shared" ref="T24:T36" si="13">Q24-P24</f>
-        <v>-12.400000000000006</v>
-      </c>
-      <c r="U24">
-        <f t="shared" ref="U24:U36" si="14">R24-P24</f>
-        <v>-8.8000000000000114</v>
-      </c>
-      <c r="V24">
-        <f t="shared" ref="V24:V36" si="15">S24-P24</f>
-        <v>-21.200000000000017</v>
-      </c>
-      <c r="W24">
-        <f t="shared" ref="W24:Y36" si="16">ABS(T24)</f>
-        <v>12.400000000000006</v>
-      </c>
-      <c r="X24">
-        <f t="shared" si="16"/>
-        <v>8.8000000000000114</v>
-      </c>
-      <c r="Y24">
-        <f t="shared" si="16"/>
-        <v>21.200000000000017</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>3</v>
-      </c>
-      <c r="B25">
-        <f t="shared" ref="B25:E37" si="17">B5-1.75*P5</f>
-        <v>47</v>
-      </c>
-      <c r="C25" s="5">
-        <f t="shared" si="17"/>
-        <v>46</v>
-      </c>
-      <c r="D25" s="5">
-        <f t="shared" si="17"/>
-        <v>61</v>
-      </c>
-      <c r="E25" s="5">
-        <f t="shared" si="17"/>
-        <v>60</v>
-      </c>
-      <c r="F25">
-        <f t="shared" ref="F25:F37" si="18">C25-B25</f>
-        <v>-1</v>
-      </c>
-      <c r="G25">
-        <f t="shared" ref="G25:G37" si="19">D25-B25</f>
-        <v>14</v>
-      </c>
-      <c r="H25">
-        <f t="shared" ref="H25:H37" si="20">E25-B25</f>
-        <v>13</v>
-      </c>
-      <c r="I25">
-        <f t="shared" ref="I25:K38" si="21">ABS(F25)</f>
-        <v>1</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="21"/>
-        <v>14</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="21"/>
-        <v>13</v>
-      </c>
-      <c r="O25">
-        <v>4</v>
-      </c>
-      <c r="P25">
-        <f t="shared" si="12"/>
-        <v>199.8</v>
-      </c>
-      <c r="Q25" s="5">
-        <f t="shared" si="12"/>
-        <v>191.8</v>
-      </c>
-      <c r="R25" s="5">
-        <f t="shared" si="12"/>
-        <v>193.2</v>
-      </c>
-      <c r="S25" s="5">
-        <f t="shared" si="12"/>
-        <v>174.2</v>
-      </c>
-      <c r="T25">
-        <f t="shared" si="13"/>
-        <v>-8</v>
-      </c>
-      <c r="U25">
-        <f t="shared" si="14"/>
-        <v>-6.6000000000000227</v>
-      </c>
-      <c r="V25">
-        <f t="shared" si="15"/>
-        <v>-25.600000000000023</v>
-      </c>
-      <c r="W25">
-        <f t="shared" si="16"/>
-        <v>8</v>
-      </c>
-      <c r="X25">
-        <f t="shared" si="16"/>
-        <v>6.6000000000000227</v>
-      </c>
-      <c r="Y25">
-        <f t="shared" si="16"/>
-        <v>25.600000000000023</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>4</v>
-      </c>
-      <c r="B26">
-        <f t="shared" si="17"/>
-        <v>63</v>
-      </c>
-      <c r="C26" s="5">
-        <f t="shared" si="17"/>
-        <v>55</v>
-      </c>
-      <c r="D26" s="5">
-        <f t="shared" si="17"/>
-        <v>73.5</v>
-      </c>
-      <c r="E26" s="5">
-        <f t="shared" si="17"/>
-        <v>83</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="18"/>
-        <v>-8</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="19"/>
-        <v>10.5</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="20"/>
-        <v>20</v>
-      </c>
-      <c r="I26">
-        <f t="shared" si="21"/>
-        <v>8</v>
-      </c>
-      <c r="J26">
-        <f t="shared" si="21"/>
-        <v>10.5</v>
-      </c>
-      <c r="K26">
-        <f t="shared" si="21"/>
-        <v>20</v>
-      </c>
-      <c r="O26">
-        <v>5</v>
-      </c>
-      <c r="P26">
-        <f t="shared" si="12"/>
-        <v>208.60000000000002</v>
-      </c>
-      <c r="Q26" s="5">
-        <f t="shared" si="12"/>
-        <v>191.8</v>
-      </c>
-      <c r="R26" s="5">
-        <f t="shared" si="12"/>
-        <v>183</v>
-      </c>
-      <c r="S26" s="5">
-        <f t="shared" si="12"/>
-        <v>166.2</v>
-      </c>
-      <c r="T26">
-        <f t="shared" si="13"/>
-        <v>-16.800000000000011</v>
-      </c>
-      <c r="U26">
-        <f t="shared" si="14"/>
-        <v>-25.600000000000023</v>
-      </c>
-      <c r="V26">
-        <f t="shared" si="15"/>
-        <v>-42.400000000000034</v>
-      </c>
-      <c r="W26">
-        <f t="shared" si="16"/>
-        <v>16.800000000000011</v>
-      </c>
-      <c r="X26">
-        <f t="shared" si="16"/>
-        <v>25.600000000000023</v>
-      </c>
-      <c r="Y26">
-        <f t="shared" si="16"/>
-        <v>42.400000000000034</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>5</v>
-      </c>
-      <c r="B27">
-        <f t="shared" si="17"/>
-        <v>49</v>
-      </c>
-      <c r="C27" s="5">
-        <f t="shared" si="17"/>
-        <v>55</v>
-      </c>
-      <c r="D27" s="5">
-        <f t="shared" si="17"/>
-        <v>69</v>
-      </c>
-      <c r="E27" s="5">
-        <f t="shared" si="17"/>
-        <v>75</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="18"/>
-        <v>6</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="19"/>
-        <v>20</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="20"/>
-        <v>26</v>
-      </c>
-      <c r="I27">
-        <f t="shared" si="21"/>
-        <v>6</v>
-      </c>
-      <c r="J27">
-        <f t="shared" si="21"/>
-        <v>20</v>
-      </c>
-      <c r="K27">
-        <f t="shared" si="21"/>
-        <v>26</v>
-      </c>
-      <c r="O27">
-        <v>6</v>
-      </c>
-      <c r="P27">
-        <f t="shared" si="12"/>
-        <v>199.8</v>
-      </c>
-      <c r="Q27" s="5">
-        <f t="shared" si="12"/>
-        <v>191.8</v>
-      </c>
-      <c r="R27" s="5">
-        <f t="shared" si="12"/>
-        <v>172.8</v>
-      </c>
-      <c r="S27" s="5">
-        <f t="shared" si="12"/>
-        <v>178.6</v>
-      </c>
-      <c r="T27">
-        <f t="shared" si="13"/>
-        <v>-8</v>
-      </c>
-      <c r="U27">
-        <f t="shared" si="14"/>
-        <v>-27</v>
-      </c>
-      <c r="V27">
-        <f t="shared" si="15"/>
-        <v>-21.200000000000017</v>
-      </c>
-      <c r="W27">
-        <f t="shared" si="16"/>
-        <v>8</v>
-      </c>
-      <c r="X27">
-        <f t="shared" si="16"/>
-        <v>27</v>
-      </c>
-      <c r="Y27">
-        <f t="shared" si="16"/>
-        <v>21.200000000000017</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>6</v>
-      </c>
-      <c r="B28">
-        <f t="shared" si="17"/>
-        <v>63</v>
-      </c>
-      <c r="C28" s="5">
-        <f t="shared" si="17"/>
-        <v>55</v>
-      </c>
-      <c r="D28" s="5">
-        <f t="shared" si="17"/>
-        <v>64.5</v>
-      </c>
-      <c r="E28" s="5">
-        <f t="shared" si="17"/>
-        <v>76</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="18"/>
-        <v>-8</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="19"/>
-        <v>1.5</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="20"/>
-        <v>13</v>
-      </c>
-      <c r="I28">
-        <f t="shared" si="21"/>
-        <v>8</v>
-      </c>
-      <c r="J28">
-        <f t="shared" si="21"/>
-        <v>1.5</v>
-      </c>
-      <c r="K28">
-        <f t="shared" si="21"/>
-        <v>13</v>
-      </c>
-      <c r="O28">
-        <v>7</v>
-      </c>
-      <c r="P28">
-        <f t="shared" si="12"/>
-        <v>203.6</v>
-      </c>
-      <c r="Q28" s="5">
-        <f t="shared" si="12"/>
-        <v>191.5</v>
-      </c>
-      <c r="R28" s="5">
-        <f t="shared" si="12"/>
-        <v>187.7</v>
-      </c>
-      <c r="S28" s="5">
-        <f t="shared" si="12"/>
-        <v>187.1</v>
-      </c>
-      <c r="T28">
-        <f t="shared" si="13"/>
-        <v>-12.099999999999994</v>
-      </c>
-      <c r="U28">
-        <f t="shared" si="14"/>
-        <v>-15.900000000000006</v>
-      </c>
-      <c r="V28">
-        <f t="shared" si="15"/>
-        <v>-16.5</v>
-      </c>
-      <c r="W28">
-        <f t="shared" si="16"/>
-        <v>12.099999999999994</v>
-      </c>
-      <c r="X28">
-        <f t="shared" si="16"/>
-        <v>15.900000000000006</v>
-      </c>
-      <c r="Y28">
-        <f t="shared" si="16"/>
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>7</v>
-      </c>
-      <c r="B29">
-        <f t="shared" si="17"/>
-        <v>72.5</v>
-      </c>
-      <c r="C29" s="5">
-        <f t="shared" si="17"/>
-        <v>91.75</v>
-      </c>
-      <c r="D29" s="5">
-        <f t="shared" si="17"/>
-        <v>82.25</v>
-      </c>
-      <c r="E29" s="5">
-        <f t="shared" si="17"/>
-        <v>98.75</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="18"/>
-        <v>19.25</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="19"/>
-        <v>9.75</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="20"/>
-        <v>26.25</v>
-      </c>
-      <c r="I29">
-        <f t="shared" si="21"/>
-        <v>19.25</v>
-      </c>
-      <c r="J29">
-        <f t="shared" si="21"/>
-        <v>9.75</v>
-      </c>
-      <c r="K29">
-        <f t="shared" si="21"/>
-        <v>26.25</v>
-      </c>
-      <c r="O29">
-        <v>8</v>
-      </c>
-      <c r="P29">
-        <f t="shared" si="12"/>
-        <v>183.8</v>
-      </c>
-      <c r="Q29" s="5">
-        <f t="shared" si="12"/>
-        <v>171.4</v>
-      </c>
-      <c r="R29" s="5">
-        <f t="shared" si="12"/>
-        <v>161.5</v>
-      </c>
-      <c r="S29" s="5">
-        <f t="shared" si="12"/>
-        <v>162.6</v>
-      </c>
-      <c r="T29">
-        <f t="shared" si="13"/>
-        <v>-12.400000000000006</v>
-      </c>
-      <c r="U29">
-        <f t="shared" si="14"/>
-        <v>-22.300000000000011</v>
-      </c>
-      <c r="V29">
-        <f t="shared" si="15"/>
-        <v>-21.200000000000017</v>
-      </c>
-      <c r="W29">
-        <f t="shared" si="16"/>
-        <v>12.400000000000006</v>
-      </c>
-      <c r="X29">
-        <f t="shared" si="16"/>
-        <v>22.300000000000011</v>
-      </c>
-      <c r="Y29">
-        <f t="shared" si="16"/>
-        <v>21.200000000000017</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>8</v>
-      </c>
-      <c r="B30">
-        <f t="shared" si="17"/>
-        <v>47</v>
-      </c>
-      <c r="C30" s="5">
-        <f t="shared" si="17"/>
-        <v>46</v>
-      </c>
-      <c r="D30" s="5">
-        <f t="shared" si="17"/>
-        <v>61.75</v>
-      </c>
-      <c r="E30" s="5">
-        <f t="shared" si="17"/>
-        <v>60</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="18"/>
-        <v>-1</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="19"/>
-        <v>14.75</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="20"/>
-        <v>13</v>
-      </c>
-      <c r="I30">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="J30">
-        <f t="shared" si="21"/>
-        <v>14.75</v>
-      </c>
-      <c r="K30">
-        <f t="shared" si="21"/>
-        <v>13</v>
-      </c>
-      <c r="O30">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>9</v>
-      </c>
-      <c r="O31">
-        <v>10</v>
-      </c>
-      <c r="P31">
-        <f t="shared" ref="P31:Q36" si="22">B12+1.1*P12</f>
-        <v>203.6</v>
-      </c>
-      <c r="Q31" s="5">
-        <f t="shared" si="22"/>
-        <v>209.1</v>
-      </c>
-      <c r="R31" s="5">
-        <f t="shared" si="12"/>
-        <v>194.8</v>
-      </c>
-      <c r="S31" s="5">
-        <f t="shared" si="12"/>
-        <v>195.9</v>
-      </c>
-      <c r="T31">
-        <f t="shared" si="13"/>
-        <v>5.5</v>
-      </c>
-      <c r="U31">
-        <f t="shared" si="14"/>
-        <v>-8.7999999999999829</v>
-      </c>
-      <c r="V31">
-        <f t="shared" si="15"/>
-        <v>-7.6999999999999886</v>
-      </c>
-      <c r="W31">
-        <f t="shared" si="16"/>
-        <v>5.5</v>
-      </c>
-      <c r="X31">
-        <f t="shared" si="16"/>
-        <v>8.7999999999999829</v>
-      </c>
-      <c r="Y31">
-        <f t="shared" si="16"/>
-        <v>7.6999999999999886</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>10</v>
-      </c>
-      <c r="B32">
-        <f t="shared" si="17"/>
-        <v>72.5</v>
-      </c>
-      <c r="C32" s="5">
-        <f t="shared" si="17"/>
-        <v>63.75</v>
-      </c>
-      <c r="D32" s="5">
-        <f t="shared" si="17"/>
-        <v>86.5</v>
-      </c>
-      <c r="E32" s="5">
-        <f t="shared" si="17"/>
-        <v>84.75</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="18"/>
-        <v>-8.75</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="19"/>
-        <v>14</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="20"/>
-        <v>12.25</v>
+        <v>0</v>
+      </c>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31">
+        <f>AVERAGE(Z19:Z30)</f>
+        <v>0.63333333333333519</v>
+      </c>
+      <c r="AA31">
+        <f>AVERAGE(AA19:AA30)</f>
+        <v>-5.7583333333333355</v>
+      </c>
+      <c r="AB31">
+        <f>AVERAGE(AB19:AB30)</f>
+        <v>-1.1166666666666671</v>
+      </c>
+      <c r="AC31">
+        <f>AVERAGE(AC19:AC30)</f>
+        <v>-5.3499999999999988</v>
+      </c>
+      <c r="AD31" s="2">
+        <f>AVERAGE(AD19:AD30)</f>
+        <v>0.63333333333333519</v>
+      </c>
+      <c r="AE31" s="2">
+        <f>AVERAGE(AE19:AE30)</f>
+        <v>5.7583333333333355</v>
+      </c>
+      <c r="AF31" s="2">
+        <f>AVERAGE(AF19:AF30)</f>
+        <v>4.7500000000000027</v>
+      </c>
+      <c r="AG31" s="2">
+        <f>AVERAGE(AG19:AG30)</f>
+        <v>5.3499999999999988</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="H32" s="5">
+        <f>AVERAGE(H20:H31)</f>
+        <v>-10.166666666666666</v>
       </c>
       <c r="I32">
-        <f t="shared" si="21"/>
-        <v>8.75</v>
+        <f>AVERAGE(I20:I31)</f>
+        <v>-1.0833333333333333</v>
       </c>
       <c r="J32">
-        <f t="shared" si="21"/>
-        <v>14</v>
+        <f>AVERAGE(J20:J31)</f>
+        <v>-6.458333333333333</v>
       </c>
       <c r="K32">
-        <f t="shared" si="21"/>
-        <v>12.25</v>
-      </c>
-      <c r="O32">
-        <v>11</v>
-      </c>
-      <c r="P32">
-        <f t="shared" si="22"/>
-        <v>277.8</v>
-      </c>
-      <c r="Q32" s="5">
-        <f t="shared" si="22"/>
-        <v>292.7</v>
-      </c>
-      <c r="R32" s="5">
-        <f t="shared" si="12"/>
-        <v>285</v>
-      </c>
-      <c r="T32">
-        <f t="shared" si="13"/>
-        <v>14.899999999999977</v>
-      </c>
-      <c r="U32">
-        <f t="shared" si="14"/>
-        <v>7.1999999999999886</v>
-      </c>
-      <c r="W32">
-        <f t="shared" si="16"/>
-        <v>14.899999999999977</v>
-      </c>
-      <c r="X32">
-        <f t="shared" si="16"/>
-        <v>7.1999999999999886</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>11</v>
-      </c>
-      <c r="B33">
-        <f t="shared" si="17"/>
-        <v>141</v>
-      </c>
-      <c r="C33" s="5">
-        <f t="shared" si="17"/>
-        <v>158.75</v>
-      </c>
-      <c r="D33" s="5">
-        <f t="shared" si="17"/>
-        <v>171</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="18"/>
-        <v>17.75</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="19"/>
-        <v>30</v>
-      </c>
-      <c r="I33">
-        <f t="shared" si="21"/>
-        <v>17.75</v>
-      </c>
-      <c r="J33">
-        <f t="shared" si="21"/>
-        <v>30</v>
-      </c>
-      <c r="O33">
-        <v>12</v>
-      </c>
-      <c r="P33">
-        <f t="shared" si="22"/>
-        <v>226.8</v>
-      </c>
-      <c r="Q33" s="5">
-        <f t="shared" si="22"/>
-        <v>214.7</v>
-      </c>
-      <c r="R33" s="5">
-        <f t="shared" si="12"/>
-        <v>235.6</v>
-      </c>
-      <c r="T33">
-        <f t="shared" si="13"/>
-        <v>-12.100000000000023</v>
-      </c>
-      <c r="U33">
-        <f t="shared" si="14"/>
-        <v>8.7999999999999829</v>
-      </c>
-      <c r="W33">
-        <f t="shared" si="16"/>
-        <v>12.100000000000023</v>
-      </c>
-      <c r="X33">
-        <f t="shared" si="16"/>
-        <v>8.7999999999999829</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>12</v>
-      </c>
-      <c r="B34">
-        <f t="shared" si="17"/>
-        <v>118.5</v>
-      </c>
-      <c r="C34" s="5">
-        <f t="shared" si="17"/>
-        <v>137.75</v>
-      </c>
-      <c r="D34" s="5">
-        <f t="shared" si="17"/>
-        <v>104.5</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="18"/>
-        <v>19.25</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="19"/>
-        <v>-14</v>
-      </c>
-      <c r="I34">
-        <f t="shared" si="21"/>
-        <v>19.25</v>
-      </c>
-      <c r="J34">
-        <f t="shared" si="21"/>
-        <v>14</v>
-      </c>
-      <c r="O34">
-        <v>13</v>
-      </c>
-      <c r="P34">
-        <f t="shared" si="22"/>
-        <v>212.4</v>
-      </c>
-      <c r="Q34" s="5">
-        <f t="shared" si="22"/>
-        <v>187.1</v>
-      </c>
-      <c r="R34" s="5">
-        <f t="shared" si="12"/>
-        <v>206.9</v>
-      </c>
-      <c r="S34" s="5">
-        <f t="shared" si="12"/>
-        <v>195.9</v>
-      </c>
-      <c r="T34">
-        <f t="shared" si="13"/>
-        <v>-25.300000000000011</v>
-      </c>
-      <c r="U34">
-        <f t="shared" si="14"/>
-        <v>-5.5</v>
-      </c>
-      <c r="V34">
-        <f t="shared" si="15"/>
-        <v>-16.5</v>
-      </c>
-      <c r="W34">
-        <f t="shared" si="16"/>
-        <v>25.300000000000011</v>
-      </c>
-      <c r="X34">
-        <f t="shared" si="16"/>
-        <v>5.5</v>
-      </c>
-      <c r="Y34">
-        <f t="shared" si="16"/>
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>13</v>
-      </c>
-      <c r="B35">
-        <f t="shared" si="17"/>
-        <v>58.5</v>
-      </c>
-      <c r="C35" s="5">
-        <f t="shared" si="17"/>
-        <v>98.75</v>
-      </c>
-      <c r="D35" s="5">
-        <f t="shared" si="17"/>
-        <v>67.25</v>
-      </c>
-      <c r="E35" s="5">
-        <f t="shared" si="17"/>
-        <v>84.75</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="18"/>
-        <v>40.25</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="19"/>
-        <v>8.75</v>
-      </c>
-      <c r="H35">
-        <f t="shared" si="20"/>
-        <v>26.25</v>
-      </c>
-      <c r="I35">
-        <f t="shared" si="21"/>
-        <v>40.25</v>
-      </c>
-      <c r="J35">
-        <f t="shared" si="21"/>
-        <v>8.75</v>
-      </c>
-      <c r="K35">
-        <f t="shared" si="21"/>
-        <v>26.25</v>
-      </c>
-      <c r="O35">
-        <v>14</v>
-      </c>
-      <c r="P35">
-        <f t="shared" si="22"/>
-        <v>211.6</v>
-      </c>
-      <c r="Q35" s="5">
-        <f t="shared" si="22"/>
-        <v>182.7</v>
-      </c>
-      <c r="R35" s="5">
-        <f t="shared" si="12"/>
-        <v>222.60000000000002</v>
-      </c>
-      <c r="S35" s="5">
-        <f t="shared" si="12"/>
-        <v>199.5</v>
-      </c>
-      <c r="T35">
-        <f t="shared" si="13"/>
-        <v>-28.900000000000006</v>
-      </c>
-      <c r="U35">
-        <f t="shared" si="14"/>
-        <v>11.000000000000028</v>
-      </c>
-      <c r="V35">
-        <f t="shared" si="15"/>
-        <v>-12.099999999999994</v>
-      </c>
-      <c r="W35">
-        <f t="shared" si="16"/>
-        <v>28.900000000000006</v>
-      </c>
-      <c r="X35">
-        <f t="shared" si="16"/>
-        <v>11.000000000000028</v>
-      </c>
-      <c r="Y35">
-        <f t="shared" si="16"/>
-        <v>12.099999999999994</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>14</v>
-      </c>
-      <c r="B36">
-        <f t="shared" si="17"/>
-        <v>80.5</v>
-      </c>
-      <c r="C36" s="5">
-        <f t="shared" si="17"/>
-        <v>105.75</v>
-      </c>
-      <c r="D36" s="5">
-        <f t="shared" si="17"/>
-        <v>63</v>
-      </c>
-      <c r="E36" s="5">
-        <f t="shared" si="17"/>
-        <v>99.75</v>
-      </c>
-      <c r="F36">
-        <f t="shared" si="18"/>
-        <v>25.25</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="19"/>
-        <v>-17.5</v>
-      </c>
-      <c r="H36">
-        <f t="shared" si="20"/>
-        <v>19.25</v>
-      </c>
-      <c r="I36">
-        <f t="shared" si="21"/>
-        <v>25.25</v>
-      </c>
-      <c r="J36">
-        <f t="shared" si="21"/>
-        <v>17.5</v>
-      </c>
-      <c r="K36">
-        <f t="shared" si="21"/>
-        <v>19.25</v>
-      </c>
-      <c r="O36">
-        <v>15</v>
-      </c>
-      <c r="P36">
-        <f t="shared" si="22"/>
-        <v>206.4</v>
-      </c>
-      <c r="Q36" s="5">
-        <f t="shared" si="22"/>
-        <v>208.60000000000002</v>
-      </c>
-      <c r="R36" s="5">
-        <f t="shared" si="12"/>
-        <v>191</v>
-      </c>
-      <c r="S36" s="5">
-        <f t="shared" si="12"/>
-        <v>174.2</v>
-      </c>
-      <c r="T36">
-        <f t="shared" si="13"/>
-        <v>2.2000000000000171</v>
-      </c>
-      <c r="U36">
-        <f t="shared" si="14"/>
-        <v>-15.400000000000006</v>
-      </c>
-      <c r="V36">
-        <f t="shared" si="15"/>
-        <v>-32.200000000000017</v>
-      </c>
-      <c r="W36">
-        <f t="shared" si="16"/>
-        <v>2.2000000000000171</v>
-      </c>
-      <c r="X36">
-        <f t="shared" si="16"/>
-        <v>15.400000000000006</v>
-      </c>
-      <c r="Y36">
-        <f t="shared" si="16"/>
-        <v>32.200000000000017</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>15</v>
-      </c>
-      <c r="B37">
-        <f t="shared" si="17"/>
-        <v>52.5</v>
-      </c>
-      <c r="C37" s="5">
-        <f t="shared" si="17"/>
-        <v>49</v>
-      </c>
-      <c r="D37" s="5">
-        <f t="shared" si="17"/>
-        <v>77</v>
-      </c>
-      <c r="E37" s="5">
-        <f t="shared" si="17"/>
-        <v>83</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="18"/>
-        <v>-3.5</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="19"/>
-        <v>24.5</v>
-      </c>
-      <c r="H37">
-        <f t="shared" si="20"/>
-        <v>30.5</v>
-      </c>
-      <c r="I37">
-        <f t="shared" si="21"/>
-        <v>3.5</v>
-      </c>
-      <c r="J37">
-        <f t="shared" si="21"/>
-        <v>24.5</v>
-      </c>
-      <c r="K37">
-        <f t="shared" si="21"/>
-        <v>30.5</v>
-      </c>
-      <c r="T37">
-        <f t="shared" ref="T37:Y37" si="23">AVERAGE(T22:T36)</f>
-        <v>-8.7230769230769276</v>
-      </c>
-      <c r="U37">
-        <f t="shared" si="23"/>
-        <v>-9.6692307692307757</v>
-      </c>
-      <c r="V37">
-        <f t="shared" si="23"/>
-        <v>-20.890909090909101</v>
-      </c>
-      <c r="W37">
-        <f t="shared" si="23"/>
-        <v>12.200000000000005</v>
-      </c>
-      <c r="X37">
-        <f t="shared" si="23"/>
-        <v>13.823076923076929</v>
-      </c>
-      <c r="Y37">
-        <f t="shared" si="23"/>
-        <v>20.890909090909101</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="F38">
-        <f>AVERAGE(F23:F37)</f>
-        <v>7.5</v>
-      </c>
-      <c r="G38">
-        <f>AVERAGE(G23:G37)</f>
-        <v>9.4038461538461533</v>
-      </c>
-      <c r="H38">
-        <f>AVERAGE(H23:H37)</f>
-        <v>20.045454545454547</v>
-      </c>
-      <c r="I38">
-        <f t="shared" si="21"/>
-        <v>7.5</v>
-      </c>
-      <c r="J38">
-        <f t="shared" si="21"/>
-        <v>9.4038461538461533</v>
-      </c>
-      <c r="K38">
-        <f>AVERAGE(K23:K37)</f>
-        <v>20.045454545454547</v>
-      </c>
+        <f>AVERAGE(K20:K31)</f>
+        <v>-0.91666666666666663</v>
+      </c>
+      <c r="L32" s="2">
+        <f>AVERAGE(L20:L31)</f>
+        <v>10.166666666666666</v>
+      </c>
+      <c r="M32" s="2">
+        <f>AVERAGE(M20:M31)</f>
+        <v>1.9166666666666667</v>
+      </c>
+      <c r="N32" s="2">
+        <f>AVERAGE(N20:N31)</f>
+        <v>6.458333333333333</v>
+      </c>
+      <c r="O32" s="2">
+        <f>AVERAGE(O20:O31)</f>
+        <v>1.75</v>
+      </c>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+    </row>
+    <row r="33" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+    </row>
+    <row r="34" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB65157-03D1-447B-92E0-3948812A428A}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="F4" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="15.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.21875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.77734375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.88671875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.90625" style="1"/>
+    <col min="2" max="2" width="15.08984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.90625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.36328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.1796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.81640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.90625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.54296875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2971,21 +2715,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
+    <row r="2" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B2" s="1">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="C2" s="1">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="D2" s="1">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="E2" s="1">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F2" s="1">
         <v>15</v>
@@ -2997,32 +2741,59 @@
         <v>19</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
+    <row r="3" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="1">
+        <v>70</v>
+      </c>
+      <c r="C3" s="1">
+        <v>160</v>
+      </c>
+      <c r="D3" s="1">
+        <v>140</v>
+      </c>
+      <c r="E3" s="1">
+        <v>210</v>
+      </c>
+      <c r="F3" s="1">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B4" s="1">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="C4" s="1">
+        <v>170</v>
+      </c>
+      <c r="D4" s="1">
         <v>140</v>
       </c>
-      <c r="D4" s="1">
-        <v>120</v>
-      </c>
       <c r="E4" s="1">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="F4" s="1">
         <v>15</v>
@@ -3034,27 +2805,27 @@
         <v>19</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
+    <row r="5" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B5" s="1">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="C5" s="1">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="D5" s="1">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="E5" s="1">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="F5" s="1">
         <v>15</v>
@@ -3072,18 +2843,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
+    <row r="6" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B6" s="1">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="C6" s="1">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="D6" s="1">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="E6" s="1">
         <v>200</v>
@@ -3104,27 +2875,27 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
+    <row r="7" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B7" s="1">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C7" s="1">
         <v>160</v>
       </c>
       <c r="D7" s="1">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E7" s="1">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="F7" s="1">
         <v>15</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>23</v>
+      <c r="G7" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>19</v>
@@ -3136,30 +2907,30 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
+    <row r="8" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B8" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C8" s="1">
         <v>170</v>
       </c>
       <c r="D8" s="1">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="E8" s="1">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="F8" s="1">
         <v>15</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>22</v>
@@ -3168,21 +2939,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
+    <row r="9" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B9" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C9" s="1">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D9" s="1">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E9" s="1">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="F9" s="1">
         <v>15</v>
@@ -3190,8 +2961,8 @@
       <c r="G9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>25</v>
+      <c r="H9" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>22</v>
@@ -3200,30 +2971,30 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
+    <row r="10" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B10" s="1">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C10" s="1">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D10" s="1">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="E10" s="1">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="F10" s="1">
         <v>15</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>22</v>
@@ -3232,27 +3003,27 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
+    <row r="11" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B11" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C11" s="1">
+        <v>130</v>
+      </c>
+      <c r="D11" s="1">
+        <v>100</v>
+      </c>
+      <c r="E11" s="1">
         <v>170</v>
-      </c>
-      <c r="D11" s="1">
-        <v>150</v>
-      </c>
-      <c r="E11" s="1">
-        <v>220</v>
       </c>
       <c r="F11" s="1">
         <v>15</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>27</v>
@@ -3264,151 +3035,508 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
+    <row r="12" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B12" s="1">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="C12" s="1">
-        <v>280</v>
+        <v>130</v>
       </c>
       <c r="D12" s="1">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="E12" s="1">
-        <v>350</v>
+        <v>170</v>
       </c>
       <c r="F12" s="1">
         <v>15</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>28</v>
+      <c r="G12" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
+        <v>27</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B13" s="1">
+        <v>40</v>
+      </c>
+      <c r="C13" s="1">
+        <v>130</v>
+      </c>
+      <c r="D13" s="1">
         <v>110</v>
       </c>
-      <c r="C13" s="1">
-        <v>200</v>
-      </c>
-      <c r="D13" s="1">
-        <v>180</v>
-      </c>
       <c r="E13" s="1">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="F13" s="1">
         <v>15</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>28</v>
+      <c r="G13" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B14" s="1">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="C14" s="1">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="D14" s="1">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="E14" s="1">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="F14" s="1">
-        <v>5</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1">
-        <v>90</v>
-      </c>
-      <c r="C15" s="1">
-        <v>180</v>
-      </c>
-      <c r="D15" s="1">
-        <v>160</v>
-      </c>
-      <c r="E15" s="1">
-        <v>240</v>
-      </c>
-      <c r="F15" s="1">
-        <v>5</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1">
-        <v>40</v>
-      </c>
       <c r="C16" s="1">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D16" s="1">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="E16" s="1">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="F16" s="1">
         <v>15</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1">
+        <v>30</v>
+      </c>
+      <c r="C17" s="1">
+        <v>160</v>
+      </c>
+      <c r="D17" s="1">
+        <v>140</v>
+      </c>
+      <c r="E17" s="1">
+        <v>210</v>
+      </c>
+      <c r="F17" s="1">
+        <v>15</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1">
+        <v>20</v>
+      </c>
+      <c r="C18" s="1">
+        <v>150</v>
+      </c>
+      <c r="D18" s="1">
+        <v>140</v>
+      </c>
+      <c r="E18" s="1">
+        <v>200</v>
+      </c>
+      <c r="F18" s="1">
+        <v>15</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19" s="1">
+        <v>20</v>
+      </c>
+      <c r="C19" s="1">
+        <v>160</v>
+      </c>
+      <c r="D19" s="1">
+        <v>140</v>
+      </c>
+      <c r="E19" s="1">
+        <v>200</v>
+      </c>
+      <c r="F19" s="1">
+        <v>15</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>7</v>
+      </c>
+      <c r="B20" s="1">
+        <v>50</v>
+      </c>
+      <c r="C20" s="1">
+        <v>170</v>
+      </c>
+      <c r="D20" s="1">
+        <v>150</v>
+      </c>
+      <c r="E20" s="1">
+        <v>210</v>
+      </c>
+      <c r="F20" s="1">
+        <v>15</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>8</v>
+      </c>
+      <c r="B21" s="1">
+        <v>50</v>
+      </c>
+      <c r="C21" s="1">
+        <v>140</v>
+      </c>
+      <c r="D21" s="1">
+        <v>130</v>
+      </c>
+      <c r="E21" s="1">
+        <v>200</v>
+      </c>
+      <c r="F21" s="1">
+        <v>15</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>9</v>
+      </c>
+      <c r="B22" s="1">
+        <v>60</v>
+      </c>
+      <c r="C22" s="1">
+        <v>170</v>
+      </c>
+      <c r="D22" s="1">
+        <v>150</v>
+      </c>
+      <c r="E22" s="1">
+        <v>200</v>
+      </c>
+      <c r="F22" s="1">
+        <v>15</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>10</v>
+      </c>
+      <c r="B23" s="1">
+        <v>30</v>
+      </c>
+      <c r="C23" s="1">
+        <v>170</v>
+      </c>
+      <c r="D23" s="1">
+        <v>150</v>
+      </c>
+      <c r="E23" s="1">
+        <v>220</v>
+      </c>
+      <c r="F23" s="1">
+        <v>15</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>11</v>
+      </c>
+      <c r="B24" s="1">
+        <v>150</v>
+      </c>
+      <c r="C24" s="1">
+        <v>280</v>
+      </c>
+      <c r="D24" s="1">
+        <v>210</v>
+      </c>
+      <c r="E24" s="1">
+        <v>350</v>
+      </c>
+      <c r="F24" s="1">
+        <v>15</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>12</v>
+      </c>
+      <c r="B25" s="1">
+        <v>110</v>
+      </c>
+      <c r="C25" s="1">
+        <v>200</v>
+      </c>
+      <c r="D25" s="1">
+        <v>180</v>
+      </c>
+      <c r="E25" s="1">
+        <v>250</v>
+      </c>
+      <c r="F25" s="1">
+        <v>15</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>13</v>
+      </c>
+      <c r="B26" s="1">
+        <v>90</v>
+      </c>
+      <c r="C26" s="1">
+        <v>180</v>
+      </c>
+      <c r="D26" s="1">
+        <v>150</v>
+      </c>
+      <c r="E26" s="1">
+        <v>220</v>
+      </c>
+      <c r="F26" s="1">
+        <v>5</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J26" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>14</v>
+      </c>
+      <c r="B27" s="1">
+        <v>90</v>
+      </c>
+      <c r="C27" s="1">
+        <v>180</v>
+      </c>
+      <c r="D27" s="1">
+        <v>160</v>
+      </c>
+      <c r="E27" s="1">
+        <v>240</v>
+      </c>
+      <c r="F27" s="1">
+        <v>5</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>15</v>
+      </c>
+      <c r="B28" s="1">
+        <v>40</v>
+      </c>
+      <c r="C28" s="1">
+        <v>150</v>
+      </c>
+      <c r="D28" s="1">
+        <v>140</v>
+      </c>
+      <c r="E28" s="1">
+        <v>200</v>
+      </c>
+      <c r="F28" s="1">
+        <v>15</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3418,6 +3546,2420 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BFE1DDF-5479-48DB-8FBC-A384E1A8F76B}">
+  <dimension ref="A1:AC38"/>
+  <sheetViews>
+    <sheetView topLeftCell="H17" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="8.90625" style="5"/>
+    <col min="4" max="4" width="15.81640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="19.1796875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="21.6328125" customWidth="1"/>
+    <col min="17" max="17" width="8.90625" style="5"/>
+    <col min="18" max="18" width="14.6328125" style="5" customWidth="1"/>
+    <col min="19" max="19" width="19.90625" style="5" customWidth="1"/>
+    <col min="21" max="21" width="15.90625" customWidth="1"/>
+    <col min="22" max="22" width="17.81640625" customWidth="1"/>
+    <col min="25" max="25" width="10.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="58" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>123</v>
+      </c>
+      <c r="C3" s="5">
+        <v>123</v>
+      </c>
+      <c r="D3" s="5">
+        <v>115</v>
+      </c>
+      <c r="E3" s="5">
+        <v>123</v>
+      </c>
+      <c r="F3">
+        <f>C3-B3</f>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f>D3-B3</f>
+        <v>-8</v>
+      </c>
+      <c r="H3">
+        <f>E3-B3</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f>ABS(F3)</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f>ABS(G3)</f>
+        <v>8</v>
+      </c>
+      <c r="K3">
+        <f>ABS(H3)</f>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>48</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>48</v>
+      </c>
+      <c r="R3" s="5">
+        <v>40</v>
+      </c>
+      <c r="S3" s="5">
+        <v>36</v>
+      </c>
+      <c r="T3">
+        <f>Q3-P3</f>
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <f>R3-P3</f>
+        <v>-8</v>
+      </c>
+      <c r="V3">
+        <f>S3-P3</f>
+        <v>-12</v>
+      </c>
+      <c r="W3">
+        <f>ABS(T3)</f>
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <f>ABS(U3)</f>
+        <v>8</v>
+      </c>
+      <c r="Y3">
+        <f>ABS(V3)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>131</v>
+      </c>
+      <c r="C5" s="5">
+        <v>123</v>
+      </c>
+      <c r="D5" s="5">
+        <v>131</v>
+      </c>
+      <c r="E5" s="5">
+        <v>123</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F17" si="0">C5-B5</f>
+        <v>-8</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G17" si="1">D5-B5</f>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:H17" si="2">E5-B5</f>
+        <v>-8</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:K17" si="3">ABS(F5)</f>
+        <v>8</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5">
+        <v>48</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>44</v>
+      </c>
+      <c r="R5" s="5">
+        <v>40</v>
+      </c>
+      <c r="S5" s="5">
+        <v>36</v>
+      </c>
+      <c r="T5">
+        <f t="shared" ref="T5:T17" si="4">Q5-P5</f>
+        <v>-4</v>
+      </c>
+      <c r="U5">
+        <f t="shared" ref="U5:U17" si="5">R5-P5</f>
+        <v>-8</v>
+      </c>
+      <c r="V5">
+        <f t="shared" ref="V5:V17" si="6">S5-P5</f>
+        <v>-12</v>
+      </c>
+      <c r="W5">
+        <f t="shared" ref="W5:Y17" si="7">ABS(T5)</f>
+        <v>4</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>147</v>
+      </c>
+      <c r="C6" s="5">
+        <v>139</v>
+      </c>
+      <c r="D6" s="5">
+        <v>147</v>
+      </c>
+      <c r="E6" s="5">
+        <v>139</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>-8</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>-8</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="P6">
+        <v>48</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>48</v>
+      </c>
+      <c r="R6" s="5">
+        <v>42</v>
+      </c>
+      <c r="S6" s="5">
+        <v>32</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="5"/>
+        <v>-6</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="6"/>
+        <v>-16</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>147</v>
+      </c>
+      <c r="C7" s="5">
+        <v>139</v>
+      </c>
+      <c r="D7" s="5">
+        <v>139</v>
+      </c>
+      <c r="E7" s="5">
+        <v>131</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>-8</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>-8</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>-16</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="O7">
+        <v>5</v>
+      </c>
+      <c r="P7">
+        <v>56</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>48</v>
+      </c>
+      <c r="R7" s="5">
+        <v>40</v>
+      </c>
+      <c r="S7" s="5">
+        <v>32</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="4"/>
+        <v>-8</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="5"/>
+        <v>-16</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="6"/>
+        <v>-24</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="7"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>147</v>
+      </c>
+      <c r="C8" s="5">
+        <v>139</v>
+      </c>
+      <c r="D8" s="5">
+        <v>131</v>
+      </c>
+      <c r="E8" s="5">
+        <v>139</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>-8</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>-16</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>-8</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="O8">
+        <v>6</v>
+      </c>
+      <c r="P8">
+        <v>48</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>48</v>
+      </c>
+      <c r="R8" s="5">
+        <v>38</v>
+      </c>
+      <c r="S8" s="5">
+        <v>36</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="5"/>
+        <v>-10</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="6"/>
+        <v>-12</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>153</v>
+      </c>
+      <c r="C9" s="5">
+        <v>153</v>
+      </c>
+      <c r="D9" s="5">
+        <v>147</v>
+      </c>
+      <c r="E9" s="5">
+        <v>153</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>-6</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>7</v>
+      </c>
+      <c r="P9">
+        <v>46</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>35</v>
+      </c>
+      <c r="R9" s="5">
+        <v>37</v>
+      </c>
+      <c r="S9" s="5">
+        <v>31</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="4"/>
+        <v>-11</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="5"/>
+        <v>-9</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="6"/>
+        <v>-15</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>131</v>
+      </c>
+      <c r="C10" s="5">
+        <v>123</v>
+      </c>
+      <c r="D10" s="5">
+        <v>123</v>
+      </c>
+      <c r="E10" s="5">
+        <v>123</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>-8</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>-8</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>-8</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="O10">
+        <v>8</v>
+      </c>
+      <c r="P10">
+        <v>48</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>44</v>
+      </c>
+      <c r="R10" s="5">
+        <v>35</v>
+      </c>
+      <c r="S10" s="5">
+        <v>36</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="4"/>
+        <v>-4</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="5"/>
+        <v>-13</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="6"/>
+        <v>-12</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>161</v>
+      </c>
+      <c r="O11">
+        <v>9</v>
+      </c>
+      <c r="P11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>153</v>
+      </c>
+      <c r="C12" s="5">
+        <v>153</v>
+      </c>
+      <c r="D12" s="5">
+        <v>153</v>
+      </c>
+      <c r="E12" s="5">
+        <v>153</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>10</v>
+      </c>
+      <c r="P12">
+        <v>46</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>51</v>
+      </c>
+      <c r="R12" s="5">
+        <v>38</v>
+      </c>
+      <c r="S12" s="5">
+        <v>39</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="5"/>
+        <v>-8</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="6"/>
+        <v>-7</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>225</v>
+      </c>
+      <c r="C13" s="5">
+        <v>241</v>
+      </c>
+      <c r="D13" s="5">
+        <v>241</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="O13">
+        <v>11</v>
+      </c>
+      <c r="P13">
+        <v>48</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>47</v>
+      </c>
+      <c r="R13" s="5">
+        <v>40</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="5"/>
+        <v>-8</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>185</v>
+      </c>
+      <c r="C14" s="5">
+        <v>185</v>
+      </c>
+      <c r="D14" s="5">
+        <v>185</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f>D14-B14</f>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>12</v>
+      </c>
+      <c r="P14">
+        <v>38</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>27</v>
+      </c>
+      <c r="R14" s="5">
+        <v>46</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="4"/>
+        <v>-11</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>153</v>
+      </c>
+      <c r="C15" s="5">
+        <v>153</v>
+      </c>
+      <c r="D15" s="5">
+        <v>153</v>
+      </c>
+      <c r="E15" s="5">
+        <v>153</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>13</v>
+      </c>
+      <c r="P15">
+        <v>54</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>31</v>
+      </c>
+      <c r="R15" s="5">
+        <v>49</v>
+      </c>
+      <c r="S15" s="5">
+        <v>39</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="4"/>
+        <v>-23</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="5"/>
+        <v>-5</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="6"/>
+        <v>-15</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="7"/>
+        <v>23</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>161</v>
+      </c>
+      <c r="C16" s="5">
+        <v>153</v>
+      </c>
+      <c r="D16" s="5">
+        <v>161</v>
+      </c>
+      <c r="E16" s="5">
+        <v>161</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>-8</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>14</v>
+      </c>
+      <c r="P16">
+        <v>46</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>27</v>
+      </c>
+      <c r="R16" s="5">
+        <v>56</v>
+      </c>
+      <c r="S16" s="5">
+        <v>35</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="4"/>
+        <v>-19</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="6"/>
+        <v>-11</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>147</v>
+      </c>
+      <c r="C17" s="5">
+        <v>147</v>
+      </c>
+      <c r="D17" s="5">
+        <v>147</v>
+      </c>
+      <c r="E17" s="5">
+        <v>139</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>-8</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="O17">
+        <v>15</v>
+      </c>
+      <c r="P17">
+        <v>54</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>56</v>
+      </c>
+      <c r="R17" s="5">
+        <v>40</v>
+      </c>
+      <c r="S17" s="5">
+        <v>32</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="5"/>
+        <v>-14</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="6"/>
+        <v>-22</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="7"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="F18">
+        <f>AVERAGE(F3:F17)</f>
+        <v>-2.4615384615384617</v>
+      </c>
+      <c r="G18">
+        <f>AVERAGE(G3:G17)</f>
+        <v>-2.3076923076923075</v>
+      </c>
+      <c r="H18">
+        <f>AVERAGE(H3:H17)</f>
+        <v>-5.0909090909090908</v>
+      </c>
+      <c r="I18">
+        <f>AVERAGE(I3:I17)</f>
+        <v>4.9230769230769234</v>
+      </c>
+      <c r="J18">
+        <f t="shared" ref="J18:K18" si="8">AVERAGE(J3:J17)</f>
+        <v>4.7692307692307692</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="8"/>
+        <v>5.0909090909090908</v>
+      </c>
+      <c r="T18">
+        <f t="shared" ref="T18:Y18" si="9">AVERAGE(T3:T17)</f>
+        <v>-5.6923076923076925</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="9"/>
+        <v>-6.6923076923076925</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="9"/>
+        <v>-14.363636363636363</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="9"/>
+        <v>6.7692307692307692</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="9"/>
+        <v>9.4615384615384617</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="9"/>
+        <v>14.363636363636363</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="58" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="R21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="S21" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <f>B3+1.1*P3</f>
+        <v>175.8</v>
+      </c>
+      <c r="Q22" s="5">
+        <f>C3+1.1*Q3</f>
+        <v>175.8</v>
+      </c>
+      <c r="R22" s="5">
+        <f>D3+1.1*R3</f>
+        <v>159</v>
+      </c>
+      <c r="S22" s="5">
+        <f>E3+1.1*S3</f>
+        <v>162.6</v>
+      </c>
+      <c r="T22">
+        <f>Q22-P22</f>
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <f>R22-P22</f>
+        <v>-16.800000000000011</v>
+      </c>
+      <c r="V22">
+        <f>S22-P22</f>
+        <v>-13.200000000000017</v>
+      </c>
+      <c r="W22">
+        <f>ABS(T22)</f>
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <f t="shared" ref="X22:Y22" si="10">ABS(U22)</f>
+        <v>16.800000000000011</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="10"/>
+        <v>13.200000000000017</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <f>B3-1.75*P3</f>
+        <v>39</v>
+      </c>
+      <c r="C23" s="5">
+        <f>C3-1.75*Q3</f>
+        <v>39</v>
+      </c>
+      <c r="D23" s="5">
+        <f>D3-1.75*R3</f>
+        <v>45</v>
+      </c>
+      <c r="E23" s="5">
+        <f>E3-1.75*S3</f>
+        <v>60</v>
+      </c>
+      <c r="F23">
+        <f>C23-B23</f>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f>D23-B23</f>
+        <v>6</v>
+      </c>
+      <c r="H23">
+        <f>E23-B23</f>
+        <v>21</v>
+      </c>
+      <c r="I23">
+        <f>ABS(F23)</f>
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <f t="shared" ref="J23:K23" si="11">ABS(G23)</f>
+        <v>6</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="11"/>
+        <v>21</v>
+      </c>
+      <c r="O23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="O24">
+        <v>3</v>
+      </c>
+      <c r="P24">
+        <f t="shared" ref="P24:S36" si="12">B5+1.1*P5</f>
+        <v>183.8</v>
+      </c>
+      <c r="Q24" s="5">
+        <f t="shared" si="12"/>
+        <v>171.4</v>
+      </c>
+      <c r="R24" s="5">
+        <f t="shared" si="12"/>
+        <v>175</v>
+      </c>
+      <c r="S24" s="5">
+        <f t="shared" si="12"/>
+        <v>162.6</v>
+      </c>
+      <c r="T24">
+        <f t="shared" ref="T24:T36" si="13">Q24-P24</f>
+        <v>-12.400000000000006</v>
+      </c>
+      <c r="U24">
+        <f t="shared" ref="U24:U36" si="14">R24-P24</f>
+        <v>-8.8000000000000114</v>
+      </c>
+      <c r="V24">
+        <f t="shared" ref="V24:V36" si="15">S24-P24</f>
+        <v>-21.200000000000017</v>
+      </c>
+      <c r="W24">
+        <f t="shared" ref="W24:Y36" si="16">ABS(T24)</f>
+        <v>12.400000000000006</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="16"/>
+        <v>8.8000000000000114</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="16"/>
+        <v>21.200000000000017</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ref="B25:E37" si="17">B5-1.75*P5</f>
+        <v>47</v>
+      </c>
+      <c r="C25" s="5">
+        <f t="shared" si="17"/>
+        <v>46</v>
+      </c>
+      <c r="D25" s="5">
+        <f t="shared" si="17"/>
+        <v>61</v>
+      </c>
+      <c r="E25" s="5">
+        <f t="shared" si="17"/>
+        <v>60</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ref="F25:F37" si="18">C25-B25</f>
+        <v>-1</v>
+      </c>
+      <c r="G25">
+        <f t="shared" ref="G25:G37" si="19">D25-B25</f>
+        <v>14</v>
+      </c>
+      <c r="H25">
+        <f t="shared" ref="H25:H37" si="20">E25-B25</f>
+        <v>13</v>
+      </c>
+      <c r="I25">
+        <f t="shared" ref="I25:K38" si="21">ABS(F25)</f>
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="O25">
+        <v>4</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="12"/>
+        <v>199.8</v>
+      </c>
+      <c r="Q25" s="5">
+        <f t="shared" si="12"/>
+        <v>191.8</v>
+      </c>
+      <c r="R25" s="5">
+        <f t="shared" si="12"/>
+        <v>193.2</v>
+      </c>
+      <c r="S25" s="5">
+        <f t="shared" si="12"/>
+        <v>174.2</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="13"/>
+        <v>-8</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="14"/>
+        <v>-6.6000000000000227</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="15"/>
+        <v>-25.600000000000023</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="16"/>
+        <v>6.6000000000000227</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="16"/>
+        <v>25.600000000000023</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="17"/>
+        <v>63</v>
+      </c>
+      <c r="C26" s="5">
+        <f t="shared" si="17"/>
+        <v>55</v>
+      </c>
+      <c r="D26" s="5">
+        <f t="shared" si="17"/>
+        <v>73.5</v>
+      </c>
+      <c r="E26" s="5">
+        <f t="shared" si="17"/>
+        <v>83</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="18"/>
+        <v>-8</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="19"/>
+        <v>10.5</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="20"/>
+        <v>20</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="21"/>
+        <v>8</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="21"/>
+        <v>10.5</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="21"/>
+        <v>20</v>
+      </c>
+      <c r="O26">
+        <v>5</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="12"/>
+        <v>208.60000000000002</v>
+      </c>
+      <c r="Q26" s="5">
+        <f t="shared" si="12"/>
+        <v>191.8</v>
+      </c>
+      <c r="R26" s="5">
+        <f t="shared" si="12"/>
+        <v>183</v>
+      </c>
+      <c r="S26" s="5">
+        <f t="shared" si="12"/>
+        <v>166.2</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="13"/>
+        <v>-16.800000000000011</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="14"/>
+        <v>-25.600000000000023</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="15"/>
+        <v>-42.400000000000034</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="16"/>
+        <v>16.800000000000011</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="16"/>
+        <v>25.600000000000023</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="16"/>
+        <v>42.400000000000034</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="17"/>
+        <v>49</v>
+      </c>
+      <c r="C27" s="5">
+        <f t="shared" si="17"/>
+        <v>55</v>
+      </c>
+      <c r="D27" s="5">
+        <f t="shared" si="17"/>
+        <v>69</v>
+      </c>
+      <c r="E27" s="5">
+        <f t="shared" si="17"/>
+        <v>75</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="19"/>
+        <v>20</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="20"/>
+        <v>26</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="21"/>
+        <v>6</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="21"/>
+        <v>20</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="21"/>
+        <v>26</v>
+      </c>
+      <c r="O27">
+        <v>6</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="12"/>
+        <v>199.8</v>
+      </c>
+      <c r="Q27" s="5">
+        <f t="shared" si="12"/>
+        <v>191.8</v>
+      </c>
+      <c r="R27" s="5">
+        <f t="shared" si="12"/>
+        <v>172.8</v>
+      </c>
+      <c r="S27" s="5">
+        <f t="shared" si="12"/>
+        <v>178.6</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="13"/>
+        <v>-8</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="14"/>
+        <v>-27</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="15"/>
+        <v>-21.200000000000017</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="16"/>
+        <v>27</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="16"/>
+        <v>21.200000000000017</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="17"/>
+        <v>63</v>
+      </c>
+      <c r="C28" s="5">
+        <f t="shared" si="17"/>
+        <v>55</v>
+      </c>
+      <c r="D28" s="5">
+        <f t="shared" si="17"/>
+        <v>64.5</v>
+      </c>
+      <c r="E28" s="5">
+        <f t="shared" si="17"/>
+        <v>76</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="18"/>
+        <v>-8</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="19"/>
+        <v>1.5</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="20"/>
+        <v>13</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="21"/>
+        <v>8</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="21"/>
+        <v>1.5</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="O28">
+        <v>7</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="12"/>
+        <v>203.6</v>
+      </c>
+      <c r="Q28" s="5">
+        <f t="shared" si="12"/>
+        <v>191.5</v>
+      </c>
+      <c r="R28" s="5">
+        <f t="shared" si="12"/>
+        <v>187.7</v>
+      </c>
+      <c r="S28" s="5">
+        <f t="shared" si="12"/>
+        <v>187.1</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="13"/>
+        <v>-12.099999999999994</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="14"/>
+        <v>-15.900000000000006</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="15"/>
+        <v>-16.5</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="16"/>
+        <v>12.099999999999994</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="16"/>
+        <v>15.900000000000006</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="16"/>
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="17"/>
+        <v>72.5</v>
+      </c>
+      <c r="C29" s="5">
+        <f t="shared" si="17"/>
+        <v>91.75</v>
+      </c>
+      <c r="D29" s="5">
+        <f t="shared" si="17"/>
+        <v>82.25</v>
+      </c>
+      <c r="E29" s="5">
+        <f t="shared" si="17"/>
+        <v>98.75</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="18"/>
+        <v>19.25</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="19"/>
+        <v>9.75</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="20"/>
+        <v>26.25</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="21"/>
+        <v>19.25</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="21"/>
+        <v>9.75</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="21"/>
+        <v>26.25</v>
+      </c>
+      <c r="O29">
+        <v>8</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="12"/>
+        <v>183.8</v>
+      </c>
+      <c r="Q29" s="5">
+        <f t="shared" si="12"/>
+        <v>171.4</v>
+      </c>
+      <c r="R29" s="5">
+        <f t="shared" si="12"/>
+        <v>161.5</v>
+      </c>
+      <c r="S29" s="5">
+        <f t="shared" si="12"/>
+        <v>162.6</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="13"/>
+        <v>-12.400000000000006</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="14"/>
+        <v>-22.300000000000011</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="15"/>
+        <v>-21.200000000000017</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="16"/>
+        <v>12.400000000000006</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="16"/>
+        <v>22.300000000000011</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="16"/>
+        <v>21.200000000000017</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>8</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="17"/>
+        <v>47</v>
+      </c>
+      <c r="C30" s="5">
+        <f t="shared" si="17"/>
+        <v>46</v>
+      </c>
+      <c r="D30" s="5">
+        <f t="shared" si="17"/>
+        <v>61.75</v>
+      </c>
+      <c r="E30" s="5">
+        <f t="shared" si="17"/>
+        <v>60</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="19"/>
+        <v>14.75</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="20"/>
+        <v>13</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="21"/>
+        <v>14.75</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="O30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>9</v>
+      </c>
+      <c r="O31">
+        <v>10</v>
+      </c>
+      <c r="P31">
+        <f t="shared" ref="P31:Q36" si="22">B12+1.1*P12</f>
+        <v>203.6</v>
+      </c>
+      <c r="Q31" s="5">
+        <f t="shared" si="22"/>
+        <v>209.1</v>
+      </c>
+      <c r="R31" s="5">
+        <f t="shared" si="12"/>
+        <v>194.8</v>
+      </c>
+      <c r="S31" s="5">
+        <f t="shared" si="12"/>
+        <v>195.9</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="13"/>
+        <v>5.5</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="14"/>
+        <v>-8.7999999999999829</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="15"/>
+        <v>-7.6999999999999886</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="16"/>
+        <v>5.5</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="16"/>
+        <v>8.7999999999999829</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="16"/>
+        <v>7.6999999999999886</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>10</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="17"/>
+        <v>72.5</v>
+      </c>
+      <c r="C32" s="5">
+        <f t="shared" si="17"/>
+        <v>63.75</v>
+      </c>
+      <c r="D32" s="5">
+        <f t="shared" si="17"/>
+        <v>86.5</v>
+      </c>
+      <c r="E32" s="5">
+        <f t="shared" si="17"/>
+        <v>84.75</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="18"/>
+        <v>-8.75</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="19"/>
+        <v>14</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="20"/>
+        <v>12.25</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="21"/>
+        <v>8.75</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="21"/>
+        <v>12.25</v>
+      </c>
+      <c r="O32">
+        <v>11</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="22"/>
+        <v>277.8</v>
+      </c>
+      <c r="Q32" s="5">
+        <f t="shared" si="22"/>
+        <v>292.7</v>
+      </c>
+      <c r="R32" s="5">
+        <f t="shared" si="12"/>
+        <v>285</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="13"/>
+        <v>14.899999999999977</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="14"/>
+        <v>7.1999999999999886</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="16"/>
+        <v>14.899999999999977</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="16"/>
+        <v>7.1999999999999886</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>11</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="17"/>
+        <v>141</v>
+      </c>
+      <c r="C33" s="5">
+        <f t="shared" si="17"/>
+        <v>158.75</v>
+      </c>
+      <c r="D33" s="5">
+        <f t="shared" si="17"/>
+        <v>171</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="18"/>
+        <v>17.75</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="19"/>
+        <v>30</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="21"/>
+        <v>17.75</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="21"/>
+        <v>30</v>
+      </c>
+      <c r="O33">
+        <v>12</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="22"/>
+        <v>226.8</v>
+      </c>
+      <c r="Q33" s="5">
+        <f t="shared" si="22"/>
+        <v>214.7</v>
+      </c>
+      <c r="R33" s="5">
+        <f t="shared" si="12"/>
+        <v>235.6</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="13"/>
+        <v>-12.100000000000023</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="14"/>
+        <v>8.7999999999999829</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="16"/>
+        <v>12.100000000000023</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="16"/>
+        <v>8.7999999999999829</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>12</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="17"/>
+        <v>118.5</v>
+      </c>
+      <c r="C34" s="5">
+        <f t="shared" si="17"/>
+        <v>137.75</v>
+      </c>
+      <c r="D34" s="5">
+        <f t="shared" si="17"/>
+        <v>104.5</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="18"/>
+        <v>19.25</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="19"/>
+        <v>-14</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="21"/>
+        <v>19.25</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="O34">
+        <v>13</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="22"/>
+        <v>212.4</v>
+      </c>
+      <c r="Q34" s="5">
+        <f t="shared" si="22"/>
+        <v>187.1</v>
+      </c>
+      <c r="R34" s="5">
+        <f t="shared" si="12"/>
+        <v>206.9</v>
+      </c>
+      <c r="S34" s="5">
+        <f t="shared" si="12"/>
+        <v>195.9</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="13"/>
+        <v>-25.300000000000011</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="14"/>
+        <v>-5.5</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="15"/>
+        <v>-16.5</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="16"/>
+        <v>25.300000000000011</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="16"/>
+        <v>5.5</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" si="16"/>
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>13</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="17"/>
+        <v>58.5</v>
+      </c>
+      <c r="C35" s="5">
+        <f t="shared" si="17"/>
+        <v>98.75</v>
+      </c>
+      <c r="D35" s="5">
+        <f t="shared" si="17"/>
+        <v>67.25</v>
+      </c>
+      <c r="E35" s="5">
+        <f t="shared" si="17"/>
+        <v>84.75</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="18"/>
+        <v>40.25</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="19"/>
+        <v>8.75</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="20"/>
+        <v>26.25</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="21"/>
+        <v>40.25</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="21"/>
+        <v>8.75</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="21"/>
+        <v>26.25</v>
+      </c>
+      <c r="O35">
+        <v>14</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="22"/>
+        <v>211.6</v>
+      </c>
+      <c r="Q35" s="5">
+        <f t="shared" si="22"/>
+        <v>182.7</v>
+      </c>
+      <c r="R35" s="5">
+        <f t="shared" si="12"/>
+        <v>222.60000000000002</v>
+      </c>
+      <c r="S35" s="5">
+        <f t="shared" si="12"/>
+        <v>199.5</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="13"/>
+        <v>-28.900000000000006</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="14"/>
+        <v>11.000000000000028</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="15"/>
+        <v>-12.099999999999994</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="16"/>
+        <v>28.900000000000006</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="16"/>
+        <v>11.000000000000028</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" si="16"/>
+        <v>12.099999999999994</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>14</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="17"/>
+        <v>80.5</v>
+      </c>
+      <c r="C36" s="5">
+        <f t="shared" si="17"/>
+        <v>105.75</v>
+      </c>
+      <c r="D36" s="5">
+        <f t="shared" si="17"/>
+        <v>63</v>
+      </c>
+      <c r="E36" s="5">
+        <f t="shared" si="17"/>
+        <v>99.75</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="18"/>
+        <v>25.25</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="19"/>
+        <v>-17.5</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="20"/>
+        <v>19.25</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="21"/>
+        <v>25.25</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="21"/>
+        <v>17.5</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="21"/>
+        <v>19.25</v>
+      </c>
+      <c r="O36">
+        <v>15</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="22"/>
+        <v>206.4</v>
+      </c>
+      <c r="Q36" s="5">
+        <f t="shared" si="22"/>
+        <v>208.60000000000002</v>
+      </c>
+      <c r="R36" s="5">
+        <f t="shared" si="12"/>
+        <v>191</v>
+      </c>
+      <c r="S36" s="5">
+        <f t="shared" si="12"/>
+        <v>174.2</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="13"/>
+        <v>2.2000000000000171</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="14"/>
+        <v>-15.400000000000006</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="15"/>
+        <v>-32.200000000000017</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="16"/>
+        <v>2.2000000000000171</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="16"/>
+        <v>15.400000000000006</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" si="16"/>
+        <v>32.200000000000017</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>15</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="17"/>
+        <v>52.5</v>
+      </c>
+      <c r="C37" s="5">
+        <f t="shared" si="17"/>
+        <v>49</v>
+      </c>
+      <c r="D37" s="5">
+        <f t="shared" si="17"/>
+        <v>77</v>
+      </c>
+      <c r="E37" s="5">
+        <f t="shared" si="17"/>
+        <v>83</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="18"/>
+        <v>-3.5</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="19"/>
+        <v>24.5</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="20"/>
+        <v>30.5</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="21"/>
+        <v>3.5</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="21"/>
+        <v>24.5</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="21"/>
+        <v>30.5</v>
+      </c>
+      <c r="T37">
+        <f t="shared" ref="T37:Y37" si="23">AVERAGE(T22:T36)</f>
+        <v>-8.7230769230769276</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="23"/>
+        <v>-9.6692307692307757</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="23"/>
+        <v>-20.890909090909101</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="23"/>
+        <v>12.200000000000005</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="23"/>
+        <v>13.823076923076929</v>
+      </c>
+      <c r="Y37">
+        <f t="shared" si="23"/>
+        <v>20.890909090909101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="F38">
+        <f>AVERAGE(F23:F37)</f>
+        <v>7.5</v>
+      </c>
+      <c r="G38">
+        <f>AVERAGE(G23:G37)</f>
+        <v>9.4038461538461533</v>
+      </c>
+      <c r="H38">
+        <f>AVERAGE(H23:H37)</f>
+        <v>20.045454545454547</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="21"/>
+        <v>7.5</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="21"/>
+        <v>9.4038461538461533</v>
+      </c>
+      <c r="K38">
+        <f>AVERAGE(K23:K37)</f>
+        <v>20.045454545454547</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C00147A-EBDD-46BF-93F4-91D6D12B912B}">
   <dimension ref="A1:AC38"/>
   <sheetViews>
@@ -3425,22 +5967,22 @@
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="8.88671875" style="5"/>
-    <col min="4" max="4" width="15.77734375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" style="5"/>
+    <col min="4" max="4" width="15.81640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.1796875" style="5" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="5"/>
-    <col min="18" max="18" width="14.6640625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="19.88671875" style="5" customWidth="1"/>
-    <col min="21" max="21" width="15.88671875" customWidth="1"/>
-    <col min="22" max="22" width="17.77734375" customWidth="1"/>
-    <col min="25" max="25" width="10.44140625" customWidth="1"/>
+    <col min="8" max="8" width="21.6328125" customWidth="1"/>
+    <col min="17" max="17" width="8.90625" style="5"/>
+    <col min="18" max="18" width="14.6328125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="19.90625" style="5" customWidth="1"/>
+    <col min="21" max="21" width="15.90625" customWidth="1"/>
+    <col min="22" max="22" width="17.81640625" customWidth="1"/>
+    <col min="25" max="25" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3448,7 +5990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3523,7 +6065,7 @@
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3603,7 +6145,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3611,7 +6153,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3691,7 +6233,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3771,7 +6313,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3851,7 +6393,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3931,7 +6473,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
@@ -4011,7 +6553,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
@@ -4091,7 +6633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
@@ -4099,7 +6641,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
@@ -4179,7 +6721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>11</v>
       </c>
@@ -4237,7 +6779,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12</v>
       </c>
@@ -4295,7 +6837,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13</v>
       </c>
@@ -4375,7 +6917,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>14</v>
       </c>
@@ -4455,7 +6997,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>15</v>
       </c>
@@ -4535,7 +7077,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
       <c r="F18">
         <f>AVERAGE(F3:F17)</f>
         <v>1.4615384615384615</v>
@@ -4585,7 +7127,7 @@
         <v>10.454545454545455</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" ht="58" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -4653,7 +7195,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -4701,7 +7243,7 @@
         <v>2.8000000000000114</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>1</v>
       </c>
@@ -4749,7 +7291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2</v>
       </c>
@@ -4797,7 +7339,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>3</v>
       </c>
@@ -4885,7 +7427,7 @@
         <v>9.8000000000000114</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>4</v>
       </c>
@@ -4973,7 +7515,7 @@
         <v>20.700000000000017</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>5</v>
       </c>
@@ -5061,7 +7603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>6</v>
       </c>
@@ -5149,7 +7691,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>7</v>
       </c>
@@ -5237,7 +7779,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>8</v>
       </c>
@@ -5285,7 +7827,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>9</v>
       </c>
@@ -5333,7 +7875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>10</v>
       </c>
@@ -5409,7 +7951,7 @@
         <v>18.800000000000011</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>11</v>
       </c>
@@ -5473,7 +8015,7 @@
         <v>8.7999999999999829</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>12</v>
       </c>
@@ -5549,7 +8091,7 @@
         <v>3.0999999999999943</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>13</v>
       </c>
@@ -5637,7 +8179,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>14</v>
       </c>
@@ -5725,7 +8267,7 @@
         <v>35.099999999999994</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>15</v>
       </c>
@@ -5794,7 +8336,7 @@
         <v>10.31818181818182</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
       <c r="F38">
         <f>AVERAGE(F23:F37)</f>
         <v>7.7884615384615383</v>
